--- a/test_gaussian_x_data_BACKUP.xlsx
+++ b/test_gaussian_x_data_BACKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candace_chung/Desktop/Candace Chung Files/ICL/Academics/Year 4/MSci Project/code/MSci_Atrial_Fib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103E3DA-667E-1D47-B7A8-D43077F1C476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C3390-6A12-7842-8C19-1D979D5832EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,59 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Electrode_0_x</t>
-  </si>
-  <si>
-    <t>Electrode_1_x</t>
-  </si>
-  <si>
-    <t>Electrode_2_x</t>
-  </si>
-  <si>
-    <t>Electrode_3_x</t>
-  </si>
-  <si>
-    <t>Electrode_4_x</t>
-  </si>
-  <si>
-    <t>Electrode_5_x</t>
-  </si>
-  <si>
-    <t>Electrode_6_x</t>
-  </si>
-  <si>
-    <t>Electrode_7_x</t>
-  </si>
-  <si>
-    <t>Electrode_8_x</t>
-  </si>
-  <si>
-    <t>Electrode_9_x</t>
-  </si>
-  <si>
-    <t>Electrode_10_x</t>
-  </si>
-  <si>
-    <t>Electrode_11_x</t>
-  </si>
-  <si>
-    <t>Electrode_12_x</t>
-  </si>
-  <si>
-    <t>Electrode_13_x</t>
-  </si>
-  <si>
-    <t>Electrode_14_x</t>
-  </si>
-  <si>
-    <t>Electrode_15_x</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,111 +380,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1041012154147809</v>
+        <v>5.6865808350376579E-2</v>
       </c>
       <c r="C2">
-        <v>-0.46205528714657762</v>
+        <v>-0.28943502383140668</v>
       </c>
       <c r="D2">
-        <v>-0.13545896536994731</v>
+        <v>3.0252458738258658E-2</v>
       </c>
       <c r="E2">
-        <v>2.2912100118237522E-2</v>
+        <v>-0.1822113318253242</v>
       </c>
       <c r="F2">
-        <v>4.3155074669068156</v>
+        <v>3.7479780257679161</v>
       </c>
       <c r="G2">
-        <v>3.5338842148775629</v>
+        <v>3.905909924599881</v>
       </c>
       <c r="H2">
-        <v>4.2760796715366416</v>
+        <v>4.4469754517603004</v>
       </c>
       <c r="I2">
-        <v>3.5501964670131398</v>
+        <v>4.1352645090651992</v>
       </c>
       <c r="J2">
-        <v>8.3797369067732319</v>
+        <v>7.9043311162570138</v>
       </c>
       <c r="K2">
-        <v>7.6976917265032414</v>
+        <v>7.9710215310280637</v>
       </c>
       <c r="L2">
-        <v>8.4294023049995452</v>
+        <v>8.0916210155254351</v>
       </c>
       <c r="M2">
-        <v>8.3540745757808121</v>
+        <v>8.4338810210764361</v>
       </c>
       <c r="N2">
-        <v>11.83193704521112</v>
+        <v>12.140317154149781</v>
       </c>
       <c r="O2">
-        <v>12.32517647968765</v>
+        <v>12.24598624489148</v>
       </c>
       <c r="P2">
-        <v>12.27642698591473</v>
+        <v>11.69902089967491</v>
       </c>
       <c r="Q2">
-        <v>12.34048456752044</v>
+        <v>12.029006042714551</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -545,52 +462,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.38822076096060287</v>
+        <v>-0.33433528362925391</v>
       </c>
       <c r="C3">
-        <v>0.1031214084071199</v>
+        <v>-0.46074057899727883</v>
       </c>
       <c r="D3">
-        <v>-0.31292313384348769</v>
+        <v>9.102003671969805E-2</v>
       </c>
       <c r="E3">
-        <v>-3.6767038178575961E-2</v>
+        <v>1.7366130716212069E-4</v>
       </c>
       <c r="F3">
-        <v>3.5440280406141822</v>
+        <v>3.597612770045175</v>
       </c>
       <c r="G3">
-        <v>3.845175011260733</v>
+        <v>4.2203594691758664</v>
       </c>
       <c r="H3">
-        <v>3.889266215997881</v>
+        <v>4.2728938325491672</v>
       </c>
       <c r="I3">
-        <v>3.7794193590078402</v>
+        <v>4.2669045435643316</v>
       </c>
       <c r="J3">
-        <v>7.8503201747043612</v>
+        <v>7.752267297116604</v>
       </c>
       <c r="K3">
-        <v>8.2683608832485689</v>
+        <v>8.3429925901085102</v>
       </c>
       <c r="L3">
-        <v>8.236806843330287</v>
+        <v>8.3024774749099262</v>
       </c>
       <c r="M3">
-        <v>8.0433045262642526</v>
+        <v>7.8943859843417874</v>
       </c>
       <c r="N3">
-        <v>11.74096055306218</v>
+        <v>12.067721066237491</v>
       </c>
       <c r="O3">
-        <v>11.76682010671977</v>
+        <v>11.804373675587691</v>
       </c>
       <c r="P3">
-        <v>11.531106109514599</v>
+        <v>12.255578027999441</v>
       </c>
       <c r="Q3">
-        <v>11.677823519854879</v>
+        <v>11.51429902061003</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -598,52 +515,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.8391538373346883E-2</v>
+        <v>0.3260883864689722</v>
       </c>
       <c r="C4">
-        <v>4.5734815509798743E-2</v>
+        <v>-0.2431941028639463</v>
       </c>
       <c r="D4">
-        <v>-0.27057779515764391</v>
+        <v>6.4925344230722604E-2</v>
       </c>
       <c r="E4">
-        <v>-0.36552670566243489</v>
+        <v>-0.47002979322703092</v>
       </c>
       <c r="F4">
-        <v>3.7197955363949422</v>
+        <v>3.9529479231719198</v>
       </c>
       <c r="G4">
-        <v>3.736629455514175</v>
+        <v>3.885911032360156</v>
       </c>
       <c r="H4">
-        <v>4.3292888359782404</v>
+        <v>3.6183158125489898</v>
       </c>
       <c r="I4">
-        <v>3.9645861463742031</v>
+        <v>3.7364261609862539</v>
       </c>
       <c r="J4">
-        <v>8.1745576175330452</v>
+        <v>7.9889419707273568</v>
       </c>
       <c r="K4">
-        <v>8.2723698393179728</v>
+        <v>7.8677507672834599</v>
       </c>
       <c r="L4">
-        <v>8.0234055483697038</v>
+        <v>7.8482590740000466</v>
       </c>
       <c r="M4">
-        <v>7.6299446316302628</v>
+        <v>8.3416566080447012</v>
       </c>
       <c r="N4">
-        <v>11.51222383061245</v>
+        <v>11.693218607173529</v>
       </c>
       <c r="O4">
-        <v>11.68991771363136</v>
+        <v>12.27987628199944</v>
       </c>
       <c r="P4">
-        <v>12.10756903259297</v>
+        <v>11.689754694866821</v>
       </c>
       <c r="Q4">
-        <v>12.010238218352599</v>
+        <v>11.879360063413131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -651,52 +568,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.39622528280020752</v>
+        <v>0.21047493154677249</v>
       </c>
       <c r="C5">
-        <v>0.37026430266645061</v>
+        <v>3.3880169267925142E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6532846282053701E-2</v>
+        <v>-6.3328814419244428E-2</v>
       </c>
       <c r="E5">
-        <v>-5.8544685665659291E-2</v>
+        <v>0.25386585445309517</v>
       </c>
       <c r="F5">
-        <v>3.9642094993052281</v>
+        <v>3.6945487345325261</v>
       </c>
       <c r="G5">
-        <v>3.822880738687326</v>
+        <v>3.500388198715894</v>
       </c>
       <c r="H5">
-        <v>3.591333133448944</v>
+        <v>4.4202948019765067</v>
       </c>
       <c r="I5">
-        <v>3.6404731122679368</v>
+        <v>4.1820944451941768</v>
       </c>
       <c r="J5">
-        <v>8.0921608688266797</v>
+        <v>7.8934492078770848</v>
       </c>
       <c r="K5">
-        <v>8.1470924961689519</v>
+        <v>7.8762268425107447</v>
       </c>
       <c r="L5">
-        <v>7.7424480146373904</v>
+        <v>8.2450846003450131</v>
       </c>
       <c r="M5">
-        <v>7.7744534079195509</v>
+        <v>7.8193100291907838</v>
       </c>
       <c r="N5">
-        <v>12.25263962150918</v>
+        <v>11.72965786441463</v>
       </c>
       <c r="O5">
-        <v>11.73758568458025</v>
+        <v>11.596127225845329</v>
       </c>
       <c r="P5">
-        <v>12.218706971387871</v>
+        <v>11.52850325580987</v>
       </c>
       <c r="Q5">
-        <v>11.697619186750631</v>
+        <v>11.563646257053019</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -704,52 +621,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.2271111553675238E-2</v>
+        <v>-0.36411910222889637</v>
       </c>
       <c r="C6">
-        <v>0.48789446965388827</v>
+        <v>0.1548581721309307</v>
       </c>
       <c r="D6">
-        <v>-0.28229204378874501</v>
+        <v>-0.48366615975344401</v>
       </c>
       <c r="E6">
-        <v>-4.1443359574041549E-2</v>
+        <v>0.42532121264093292</v>
       </c>
       <c r="F6">
-        <v>3.629370789175006</v>
+        <v>4.127523557966323</v>
       </c>
       <c r="G6">
-        <v>3.696261103919301</v>
+        <v>4.3301527626408216</v>
       </c>
       <c r="H6">
-        <v>3.8329193368021279</v>
+        <v>3.5137262326852108</v>
       </c>
       <c r="I6">
-        <v>4.0271942072052758</v>
+        <v>4.4030395170378132</v>
       </c>
       <c r="J6">
-        <v>8.3945095162922829</v>
+        <v>8.4277095568836629</v>
       </c>
       <c r="K6">
-        <v>7.5233924825150336</v>
+        <v>8.3716320887830964</v>
       </c>
       <c r="L6">
-        <v>8.1707580195933893</v>
+        <v>7.6142597335052518</v>
       </c>
       <c r="M6">
-        <v>7.7426696111234961</v>
+        <v>8.1294873893151411</v>
       </c>
       <c r="N6">
-        <v>11.85669619948494</v>
+        <v>11.83115845916678</v>
       </c>
       <c r="O6">
-        <v>11.784295693655521</v>
+        <v>12.30018152806004</v>
       </c>
       <c r="P6">
-        <v>12.12476938520005</v>
+        <v>11.824072223122171</v>
       </c>
       <c r="Q6">
-        <v>12.001082791734669</v>
+        <v>11.877582158829551</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -757,52 +674,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.0846222519172803E-2</v>
+        <v>-0.47682567906229562</v>
       </c>
       <c r="C7">
-        <v>3.886239299978111E-3</v>
+        <v>-0.34037998633450001</v>
       </c>
       <c r="D7">
-        <v>-0.24214672922930541</v>
+        <v>0.40875931807286259</v>
       </c>
       <c r="E7">
-        <v>-0.41603287566301789</v>
+        <v>0.42241101872824771</v>
       </c>
       <c r="F7">
-        <v>3.6774697831854701</v>
+        <v>4.3004239201886696</v>
       </c>
       <c r="G7">
-        <v>3.9474167042036421</v>
+        <v>4.4466581988658964</v>
       </c>
       <c r="H7">
-        <v>3.790548178023637</v>
+        <v>3.7952505138148291</v>
       </c>
       <c r="I7">
-        <v>3.5055904096441108</v>
+        <v>4.4185275338238226</v>
       </c>
       <c r="J7">
-        <v>8.0301078285749465</v>
+        <v>7.5283026444336638</v>
       </c>
       <c r="K7">
-        <v>7.5354021817905039</v>
+        <v>7.6371307679900244</v>
       </c>
       <c r="L7">
-        <v>8.1401067628463277</v>
+        <v>7.9568815996210152</v>
       </c>
       <c r="M7">
-        <v>7.9670357517205286</v>
+        <v>7.5020573481796324</v>
       </c>
       <c r="N7">
-        <v>12.149052574801781</v>
+        <v>11.5283428005896</v>
       </c>
       <c r="O7">
-        <v>12.09047548810141</v>
+        <v>11.646440643235501</v>
       </c>
       <c r="P7">
-        <v>12.47615708473643</v>
+        <v>12.47513632177918</v>
       </c>
       <c r="Q7">
-        <v>12.45940236607289</v>
+        <v>12.11307927419138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -810,52 +727,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.44595158165442378</v>
+        <v>0.1022647699631879</v>
       </c>
       <c r="C8">
-        <v>-0.32921060835704269</v>
+        <v>1.557530278884289E-2</v>
       </c>
       <c r="D8">
-        <v>-0.17760539773894149</v>
+        <v>0.1249140443398412</v>
       </c>
       <c r="E8">
-        <v>-0.21327710198576899</v>
+        <v>0.39468119953272568</v>
       </c>
       <c r="F8">
-        <v>3.9695426590823208</v>
+        <v>3.6696205013827372</v>
       </c>
       <c r="G8">
-        <v>3.9849384124392819</v>
+        <v>3.6799120312608888</v>
       </c>
       <c r="H8">
-        <v>3.880354987469874</v>
+        <v>4.3243620467056134</v>
       </c>
       <c r="I8">
-        <v>3.6681431893409568</v>
+        <v>4.0037984150985313</v>
       </c>
       <c r="J8">
-        <v>8.0390470809901515</v>
+        <v>8.3041155869852776</v>
       </c>
       <c r="K8">
-        <v>7.7277832754702169</v>
+        <v>7.8312710931479073</v>
       </c>
       <c r="L8">
-        <v>8.3607836991352436</v>
+        <v>8.3726134761944504</v>
       </c>
       <c r="M8">
-        <v>7.5605194768531696</v>
+        <v>8.2973174943933614</v>
       </c>
       <c r="N8">
-        <v>12.384843596150599</v>
+        <v>12.369880572558181</v>
       </c>
       <c r="O8">
-        <v>11.71482789508341</v>
+        <v>11.811676134411931</v>
       </c>
       <c r="P8">
-        <v>11.621488139213261</v>
+        <v>12.0261062908799</v>
       </c>
       <c r="Q8">
-        <v>11.69864179819557</v>
+        <v>11.572078877174119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -863,52 +780,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.18706776675345549</v>
+        <v>-0.41584845331468068</v>
       </c>
       <c r="C9">
-        <v>0.3068256917596156</v>
+        <v>8.1098617126661887E-2</v>
       </c>
       <c r="D9">
-        <v>-5.0182609864057093E-2</v>
+        <v>-0.21461898311570851</v>
       </c>
       <c r="E9">
-        <v>-0.32263512931723598</v>
+        <v>-0.32863412833842409</v>
       </c>
       <c r="F9">
-        <v>3.9295164005961492</v>
+        <v>4.310912135467313</v>
       </c>
       <c r="G9">
-        <v>4.1385442693862773</v>
+        <v>4.0759880290554458</v>
       </c>
       <c r="H9">
-        <v>3.5376019490946931</v>
+        <v>4.2410008211423467</v>
       </c>
       <c r="I9">
-        <v>4.1089213103644227</v>
+        <v>4.0288482851959682</v>
       </c>
       <c r="J9">
-        <v>7.8398631243052144</v>
+        <v>7.8375991841211512</v>
       </c>
       <c r="K9">
-        <v>8.3936648668922267</v>
+        <v>8.1116557309846939</v>
       </c>
       <c r="L9">
-        <v>8.1896232880265067</v>
+        <v>8.4328409684581764</v>
       </c>
       <c r="M9">
-        <v>8.3001580797009122</v>
+        <v>7.6508576134700306</v>
       </c>
       <c r="N9">
-        <v>11.83747668204121</v>
+        <v>11.89748842440358</v>
       </c>
       <c r="O9">
-        <v>11.71265361215313</v>
+        <v>11.64321911521875</v>
       </c>
       <c r="P9">
-        <v>12.20158400450566</v>
+        <v>12.083765605577909</v>
       </c>
       <c r="Q9">
-        <v>12.320434411873769</v>
+        <v>12.05114722696017</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -916,52 +833,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.17188202727412599</v>
+        <v>-0.3449480841811704</v>
       </c>
       <c r="C10">
-        <v>0.32813529499275951</v>
+        <v>-0.42227404078193009</v>
       </c>
       <c r="D10">
-        <v>-4.5514991631012143E-2</v>
+        <v>1.7003740809849451E-2</v>
       </c>
       <c r="E10">
-        <v>-0.28528447903577342</v>
+        <v>0.2720737995964706</v>
       </c>
       <c r="F10">
-        <v>4.090116124885844</v>
+        <v>4.4507212251721828</v>
       </c>
       <c r="G10">
-        <v>3.940960977887936</v>
+        <v>3.8382536064938622</v>
       </c>
       <c r="H10">
-        <v>3.900484262385131</v>
+        <v>4.3274158833618612</v>
       </c>
       <c r="I10">
-        <v>3.7201933274085701</v>
+        <v>3.879178135991292</v>
       </c>
       <c r="J10">
-        <v>8.1254736895565376</v>
+        <v>8.4953930077679196</v>
       </c>
       <c r="K10">
-        <v>8.2577738220404715</v>
+        <v>7.9633830021827343</v>
       </c>
       <c r="L10">
-        <v>8.2664570822088628</v>
+        <v>7.5953788305592056</v>
       </c>
       <c r="M10">
-        <v>7.9316867356292597</v>
+        <v>7.7005976710334609</v>
       </c>
       <c r="N10">
-        <v>12.32948118966082</v>
+        <v>12.16203320221039</v>
       </c>
       <c r="O10">
-        <v>11.58741133477179</v>
+        <v>11.939917003576371</v>
       </c>
       <c r="P10">
-        <v>12.00449709736387</v>
+        <v>11.765386146924749</v>
       </c>
       <c r="Q10">
-        <v>11.86451657250741</v>
+        <v>12.03547842224331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -969,52 +886,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.25033631927037819</v>
+        <v>-1.343108693330408E-2</v>
       </c>
       <c r="C11">
-        <v>0.1349872554833734</v>
+        <v>-0.40224191363960943</v>
       </c>
       <c r="D11">
-        <v>0.23299498387298331</v>
+        <v>-0.19443232955142931</v>
       </c>
       <c r="E11">
-        <v>-0.13516745909770631</v>
+        <v>0.39025875410739358</v>
       </c>
       <c r="F11">
-        <v>4.3072518178534089</v>
+        <v>3.7316377519418449</v>
       </c>
       <c r="G11">
-        <v>4.38823797455772</v>
+        <v>4.3259418699633878</v>
       </c>
       <c r="H11">
-        <v>3.9285671176660921</v>
+        <v>3.8033215158428901</v>
       </c>
       <c r="I11">
-        <v>4.0116836009480874</v>
+        <v>4.2027025791660968</v>
       </c>
       <c r="J11">
-        <v>8.3331893004741211</v>
+        <v>8.1637258712317173</v>
       </c>
       <c r="K11">
-        <v>7.8194081605820536</v>
+        <v>7.9555328907005256</v>
       </c>
       <c r="L11">
-        <v>7.8795826061840586</v>
+        <v>8.1390788443050077</v>
       </c>
       <c r="M11">
-        <v>8.2955903486293252</v>
+        <v>8.096928819093149</v>
       </c>
       <c r="N11">
-        <v>11.55853973679258</v>
+        <v>11.582145357723791</v>
       </c>
       <c r="O11">
-        <v>12.067449676426889</v>
+        <v>12.34219809942641</v>
       </c>
       <c r="P11">
-        <v>12.457877027320929</v>
+        <v>12.04058579008478</v>
       </c>
       <c r="Q11">
-        <v>11.991196744977319</v>
+        <v>11.5706204099969</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1022,52 +939,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-3.648793893186586E-2</v>
+        <v>0.30100932347642018</v>
       </c>
       <c r="C12">
-        <v>0.49746975448097142</v>
+        <v>-0.12874996991450641</v>
       </c>
       <c r="D12">
-        <v>-0.20812769010052401</v>
+        <v>-0.1413576004868056</v>
       </c>
       <c r="E12">
-        <v>0.28423497232777112</v>
+        <v>6.7566999864244526E-2</v>
       </c>
       <c r="F12">
-        <v>3.608057134773444</v>
+        <v>3.564268687291253</v>
       </c>
       <c r="G12">
-        <v>3.6124647132204739</v>
+        <v>4.3860992039200459</v>
       </c>
       <c r="H12">
-        <v>3.8491212037508071</v>
+        <v>3.9304035510733262</v>
       </c>
       <c r="I12">
-        <v>4.0890300451418513</v>
+        <v>3.8473945128529738</v>
       </c>
       <c r="J12">
-        <v>7.8515863592640773</v>
+        <v>8.3876597466698914</v>
       </c>
       <c r="K12">
-        <v>8.4157959479125406</v>
+        <v>7.9779569960971264</v>
       </c>
       <c r="L12">
-        <v>8.4369369155159823</v>
+        <v>7.9702292354127398</v>
       </c>
       <c r="M12">
-        <v>7.9178845157302717</v>
+        <v>8.0418453207881377</v>
       </c>
       <c r="N12">
-        <v>11.786822095029949</v>
+        <v>11.84447781389723</v>
       </c>
       <c r="O12">
-        <v>12.0104111153017</v>
+        <v>11.539354641429311</v>
       </c>
       <c r="P12">
-        <v>11.755420618786159</v>
+        <v>12.47775480286127</v>
       </c>
       <c r="Q12">
-        <v>12.422461956480531</v>
+        <v>12.47806931662061</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1075,52 +992,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.46710864120264561</v>
+        <v>-3.6592202512912293E-2</v>
       </c>
       <c r="C13">
-        <v>-0.48739662562157871</v>
+        <v>0.1667616826648983</v>
       </c>
       <c r="D13">
-        <v>0.24936537017537599</v>
+        <v>-9.0881059465536262E-2</v>
       </c>
       <c r="E13">
-        <v>-4.2007930211182647E-2</v>
+        <v>-0.47067858594195228</v>
       </c>
       <c r="F13">
-        <v>3.9915775813151599</v>
+        <v>3.5283580203042062</v>
       </c>
       <c r="G13">
-        <v>4.1704312015911738</v>
+        <v>3.6014466084920009</v>
       </c>
       <c r="H13">
-        <v>3.8912477156559602</v>
+        <v>4.2282526463178458</v>
       </c>
       <c r="I13">
-        <v>4.2872899166311607</v>
+        <v>3.9614913905933271</v>
       </c>
       <c r="J13">
-        <v>7.8525967208141596</v>
+        <v>8.441908589285422</v>
       </c>
       <c r="K13">
-        <v>8.3422207141858404</v>
+        <v>7.5598391124322646</v>
       </c>
       <c r="L13">
-        <v>8.147811824191507</v>
+        <v>8.3406421972568605</v>
       </c>
       <c r="M13">
-        <v>7.9883833615081983</v>
+        <v>7.5040996517647178</v>
       </c>
       <c r="N13">
-        <v>12.364704224372669</v>
+        <v>12.430199209218859</v>
       </c>
       <c r="O13">
-        <v>12.014690035593089</v>
+        <v>12.218253220374089</v>
       </c>
       <c r="P13">
-        <v>11.986402980652819</v>
+        <v>12.20900260566974</v>
       </c>
       <c r="Q13">
-        <v>11.73458509567379</v>
+        <v>11.87237462125918</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1128,52 +1045,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.44000168600260747</v>
+        <v>0.35088640221695622</v>
       </c>
       <c r="C14">
-        <v>-0.28788915536606141</v>
+        <v>6.3594718425785568E-2</v>
       </c>
       <c r="D14">
-        <v>-0.33300055342784668</v>
+        <v>0.20780652966018309</v>
       </c>
       <c r="E14">
-        <v>-0.35348181004166712</v>
+        <v>-0.23725672253739499</v>
       </c>
       <c r="F14">
-        <v>4.3870850997708493</v>
+        <v>3.8801501413196271</v>
       </c>
       <c r="G14">
-        <v>3.936053574351055</v>
+        <v>4.2964376719114368</v>
       </c>
       <c r="H14">
-        <v>3.8637468569906961</v>
+        <v>4.2814971818670298</v>
       </c>
       <c r="I14">
-        <v>3.6436800990213269</v>
+        <v>4.1195881888198294</v>
       </c>
       <c r="J14">
-        <v>7.825468062726463</v>
+        <v>8.4803057804779236</v>
       </c>
       <c r="K14">
-        <v>8.1709279964755233</v>
+        <v>7.6029740899097016</v>
       </c>
       <c r="L14">
-        <v>7.5919951344716488</v>
+        <v>7.8883288559546418</v>
       </c>
       <c r="M14">
-        <v>8.2125501761601001</v>
+        <v>7.660525943792921</v>
       </c>
       <c r="N14">
-        <v>11.97277428351514</v>
+        <v>12.124611297958751</v>
       </c>
       <c r="O14">
-        <v>12.09588221439502</v>
+        <v>12.059686511747261</v>
       </c>
       <c r="P14">
-        <v>11.74715440768639</v>
+        <v>11.630265388284929</v>
       </c>
       <c r="Q14">
-        <v>11.602813966798919</v>
+        <v>12.275269996495661</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1181,52 +1098,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1676789349157235</v>
+        <v>-0.22172851226706539</v>
       </c>
       <c r="C15">
-        <v>8.5372094405294918E-2</v>
+        <v>-0.13425787426831581</v>
       </c>
       <c r="D15">
-        <v>-0.2725509032424176</v>
+        <v>-0.41287668356768609</v>
       </c>
       <c r="E15">
-        <v>0.39647112967964881</v>
+        <v>-0.48175321892119422</v>
       </c>
       <c r="F15">
-        <v>4.2412756867440278</v>
+        <v>4.1414593720890176</v>
       </c>
       <c r="G15">
-        <v>3.5567191653226322</v>
+        <v>3.600608340240758</v>
       </c>
       <c r="H15">
-        <v>3.9395320981112349</v>
+        <v>4.1948512245274747</v>
       </c>
       <c r="I15">
-        <v>4.0434879708645104</v>
+        <v>3.5352631825421268</v>
       </c>
       <c r="J15">
-        <v>7.6240967409633393</v>
+        <v>8.0690456346461392</v>
       </c>
       <c r="K15">
-        <v>7.5140376149293227</v>
+        <v>8.1615516853721495</v>
       </c>
       <c r="L15">
-        <v>8.3284246650728182</v>
+        <v>8.2211299078224975</v>
       </c>
       <c r="M15">
-        <v>8.2998296969945944</v>
+        <v>7.6592320584129094</v>
       </c>
       <c r="N15">
-        <v>12.048378949664031</v>
+        <v>12.46973845764016</v>
       </c>
       <c r="O15">
-        <v>12.03799915239555</v>
+        <v>11.59153031511368</v>
       </c>
       <c r="P15">
-        <v>11.504098043564399</v>
+        <v>12.12677767807658</v>
       </c>
       <c r="Q15">
-        <v>12.185580361343799</v>
+        <v>12.29992494540684</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1234,52 +1151,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.40950135940197557</v>
+        <v>-0.41307934434257743</v>
       </c>
       <c r="C16">
-        <v>-6.7598113930248505E-2</v>
+        <v>-3.7206832733448492E-3</v>
       </c>
       <c r="D16">
-        <v>0.4381130173639457</v>
+        <v>-0.40787554475680549</v>
       </c>
       <c r="E16">
-        <v>-5.0022129248578302E-2</v>
+        <v>-1.8148261401955131E-2</v>
       </c>
       <c r="F16">
-        <v>4.2435211280922793</v>
+        <v>3.656026167057163</v>
       </c>
       <c r="G16">
-        <v>4.4251877938433903</v>
+        <v>3.8823891485721931</v>
       </c>
       <c r="H16">
-        <v>4.3398517475907354</v>
+        <v>3.5086429915758131</v>
       </c>
       <c r="I16">
-        <v>3.6804341382204759</v>
+        <v>3.9744985339765408</v>
       </c>
       <c r="J16">
-        <v>8.0325913769375212</v>
+        <v>7.9024948910325428</v>
       </c>
       <c r="K16">
-        <v>7.9565713020340256</v>
+        <v>7.8155657828608822</v>
       </c>
       <c r="L16">
-        <v>7.5063357196661276</v>
+        <v>7.9044737317596612</v>
       </c>
       <c r="M16">
-        <v>7.8563106248447134</v>
+        <v>7.5027272218619743</v>
       </c>
       <c r="N16">
-        <v>11.694701823670741</v>
+        <v>11.66212278906475</v>
       </c>
       <c r="O16">
-        <v>11.50432815989797</v>
+        <v>11.568775059245491</v>
       </c>
       <c r="P16">
-        <v>11.81171769225395</v>
+        <v>12.00254568617539</v>
       </c>
       <c r="Q16">
-        <v>11.805465628779791</v>
+        <v>12.493561212293789</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1287,52 +1204,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-7.8718826448266221E-2</v>
+        <v>0.25168185259533482</v>
       </c>
       <c r="C17">
-        <v>-4.4855601529629092E-2</v>
+        <v>0.36415604390006939</v>
       </c>
       <c r="D17">
-        <v>0.19982317010746531</v>
+        <v>0.32298333635669751</v>
       </c>
       <c r="E17">
-        <v>0.42422929929174757</v>
+        <v>-0.4353656398271305</v>
       </c>
       <c r="F17">
-        <v>3.7838442739748088</v>
+        <v>3.5973849147919972</v>
       </c>
       <c r="G17">
-        <v>3.5689494966554181</v>
+        <v>4.1038217130013779</v>
       </c>
       <c r="H17">
-        <v>4.0090438808885427</v>
+        <v>3.5766124149880039</v>
       </c>
       <c r="I17">
-        <v>3.855011928339632</v>
+        <v>4.2295224185490143</v>
       </c>
       <c r="J17">
-        <v>7.5787035244485024</v>
+        <v>7.521697926659888</v>
       </c>
       <c r="K17">
-        <v>8.4041382885657097</v>
+        <v>8.0720996640553189</v>
       </c>
       <c r="L17">
-        <v>7.9531950131701166</v>
+        <v>8.1523778380860392</v>
       </c>
       <c r="M17">
-        <v>8.4485809106884115</v>
+        <v>8.4189309108114898</v>
       </c>
       <c r="N17">
-        <v>12.07424279905783</v>
+        <v>12.392342996755371</v>
       </c>
       <c r="O17">
-        <v>11.96814439607309</v>
+        <v>11.558369733404319</v>
       </c>
       <c r="P17">
-        <v>12.305795144170149</v>
+        <v>12.18426664630573</v>
       </c>
       <c r="Q17">
-        <v>11.828276343160701</v>
+        <v>11.74675136881698</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1340,52 +1257,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.2243992123542696</v>
+        <v>0.21054649517811619</v>
       </c>
       <c r="C18">
-        <v>-0.33838961579953908</v>
+        <v>0.37372068573281803</v>
       </c>
       <c r="D18">
-        <v>0.19175804438744931</v>
+        <v>-0.2013553167188025</v>
       </c>
       <c r="E18">
-        <v>9.114602885125922E-2</v>
+        <v>-0.39839276003991592</v>
       </c>
       <c r="F18">
-        <v>3.879594554889167</v>
+        <v>3.9429269434868601</v>
       </c>
       <c r="G18">
-        <v>4.3682634887575196</v>
+        <v>4.2245580833975174</v>
       </c>
       <c r="H18">
-        <v>4.3368837343270901</v>
+        <v>4.3471315734080598</v>
       </c>
       <c r="I18">
-        <v>4.2049028415999139</v>
+        <v>4.4547228017073346</v>
       </c>
       <c r="J18">
-        <v>7.6643147981950364</v>
+        <v>8.3122336777128432</v>
       </c>
       <c r="K18">
-        <v>8.1493348223745734</v>
+        <v>7.537115266409975</v>
       </c>
       <c r="L18">
-        <v>7.9228460150856366</v>
+        <v>8.389013832589578</v>
       </c>
       <c r="M18">
-        <v>7.9572686524400016</v>
+        <v>8.4680607253779492</v>
       </c>
       <c r="N18">
-        <v>11.89479255032334</v>
+        <v>11.646324779612691</v>
       </c>
       <c r="O18">
-        <v>11.742186577906031</v>
+        <v>11.501638579391891</v>
       </c>
       <c r="P18">
-        <v>12.29559412398222</v>
+        <v>11.544752463597099</v>
       </c>
       <c r="Q18">
-        <v>11.593108222429979</v>
+        <v>12.389319016445199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1393,52 +1310,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.19148189346265401</v>
+        <v>-0.35970695549772708</v>
       </c>
       <c r="C19">
-        <v>-0.28743310733715971</v>
+        <v>-0.15921978342103271</v>
       </c>
       <c r="D19">
-        <v>-3.6533987300921389E-2</v>
+        <v>0.2364808309584715</v>
       </c>
       <c r="E19">
-        <v>0.1086250116591071</v>
+        <v>-7.508602474132986E-2</v>
       </c>
       <c r="F19">
-        <v>3.532771128782012</v>
+        <v>3.9767567667638231</v>
       </c>
       <c r="G19">
-        <v>3.5769411641129141</v>
+        <v>4.3169424408697736</v>
       </c>
       <c r="H19">
-        <v>4.0736603550176849</v>
+        <v>4.4673441117904984</v>
       </c>
       <c r="I19">
-        <v>4.4177748089650208</v>
+        <v>4.2755466500996766</v>
       </c>
       <c r="J19">
-        <v>8.0153305520749232</v>
+        <v>8.3438125344065988</v>
       </c>
       <c r="K19">
-        <v>8.2349264839002743</v>
+        <v>8.4871479801941323</v>
       </c>
       <c r="L19">
-        <v>8.4342722461951745</v>
+        <v>8.3063331782468772</v>
       </c>
       <c r="M19">
-        <v>8.2263673950204108</v>
+        <v>7.9605473378382836</v>
       </c>
       <c r="N19">
-        <v>11.91786034380039</v>
+        <v>11.699781368331079</v>
       </c>
       <c r="O19">
-        <v>12.004465655820891</v>
+        <v>11.73749473538845</v>
       </c>
       <c r="P19">
-        <v>11.75443883625584</v>
+        <v>12.09406654029895</v>
       </c>
       <c r="Q19">
-        <v>11.950644653426171</v>
+        <v>11.620434717824001</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1446,52 +1363,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.0335129590576391E-2</v>
+        <v>-0.1046815793625894</v>
       </c>
       <c r="C20">
-        <v>7.2102582343212984E-2</v>
+        <v>5.0865665750886253E-2</v>
       </c>
       <c r="D20">
-        <v>-6.5184298391925077E-2</v>
+        <v>0.38153066510863209</v>
       </c>
       <c r="E20">
-        <v>-0.48882733857821348</v>
+        <v>0.20456438435032409</v>
       </c>
       <c r="F20">
-        <v>4.2559354248771992</v>
+        <v>4.0426763282654354</v>
       </c>
       <c r="G20">
-        <v>3.9726633466742021</v>
+        <v>4.0151396087144198</v>
       </c>
       <c r="H20">
-        <v>3.9532386822714449</v>
+        <v>4.2832889627962683</v>
       </c>
       <c r="I20">
-        <v>4.101519636569904</v>
+        <v>4.3290565113130413</v>
       </c>
       <c r="J20">
-        <v>8.4157221791076289</v>
+        <v>8.2077416627325501</v>
       </c>
       <c r="K20">
-        <v>8.2731904983493436</v>
+        <v>7.6591795076507632</v>
       </c>
       <c r="L20">
-        <v>7.5944923394302766</v>
+        <v>7.8712559023050179</v>
       </c>
       <c r="M20">
-        <v>7.8570762336336628</v>
+        <v>8.2922390687567038</v>
       </c>
       <c r="N20">
-        <v>11.80110422757007</v>
+        <v>11.986235654525011</v>
       </c>
       <c r="O20">
-        <v>12.35036525477109</v>
+        <v>12.32820491951238</v>
       </c>
       <c r="P20">
-        <v>12.08424053001999</v>
+        <v>12.19536245878486</v>
       </c>
       <c r="Q20">
-        <v>11.546318612842359</v>
+        <v>11.55218306775096</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1499,52 +1416,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.107781351958304E-2</v>
+        <v>-3.7048040339551447E-2</v>
       </c>
       <c r="C21">
-        <v>-0.41016378919700858</v>
+        <v>9.7656572829809773E-2</v>
       </c>
       <c r="D21">
-        <v>0.35648629778319663</v>
+        <v>0.33392524257193518</v>
       </c>
       <c r="E21">
-        <v>-2.3019962839011979E-2</v>
+        <v>-1.4725110127783769E-2</v>
       </c>
       <c r="F21">
-        <v>3.8312192049462279</v>
+        <v>3.6104343189013499</v>
       </c>
       <c r="G21">
-        <v>3.7591676246825791</v>
+        <v>3.9093230203120291</v>
       </c>
       <c r="H21">
-        <v>4.4320768283864451</v>
+        <v>4.3909440534789521</v>
       </c>
       <c r="I21">
-        <v>4.0231827502718422</v>
+        <v>4.1628866421177104</v>
       </c>
       <c r="J21">
-        <v>8.3809823641281298</v>
+        <v>8.2953554798594293</v>
       </c>
       <c r="K21">
-        <v>7.7203196261851312</v>
+        <v>8.3393286688127795</v>
       </c>
       <c r="L21">
-        <v>8.4645154973838572</v>
+        <v>8.2099489348985255</v>
       </c>
       <c r="M21">
-        <v>7.5236376460632366</v>
+        <v>8.2541741326663107</v>
       </c>
       <c r="N21">
-        <v>11.91410790509077</v>
+        <v>12.093106238027101</v>
       </c>
       <c r="O21">
-        <v>12.228600375581779</v>
+        <v>12.005453366530929</v>
       </c>
       <c r="P21">
-        <v>12.4106083034495</v>
+        <v>11.95860738683159</v>
       </c>
       <c r="Q21">
-        <v>12.340567468205879</v>
+        <v>11.93688900658073</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -1552,52 +1469,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2243878310328806</v>
+        <v>0.3044343864402288</v>
       </c>
       <c r="C22">
-        <v>0.33415807936417241</v>
+        <v>-2.792588892854608E-2</v>
       </c>
       <c r="D22">
-        <v>-0.24387436284736189</v>
+        <v>0.48526588838101981</v>
       </c>
       <c r="E22">
-        <v>-0.32705973596261778</v>
+        <v>-0.26161553350318872</v>
       </c>
       <c r="F22">
-        <v>3.5473889194383101</v>
+        <v>4.2010300881257781</v>
       </c>
       <c r="G22">
-        <v>3.8764264261582499</v>
+        <v>4.4407180780822166</v>
       </c>
       <c r="H22">
-        <v>4.1833831336916996</v>
+        <v>3.554217409640136</v>
       </c>
       <c r="I22">
-        <v>3.5048334688599052</v>
+        <v>4.1292820958618659</v>
       </c>
       <c r="J22">
-        <v>8.4167961464118495</v>
+        <v>8.1422428109935918</v>
       </c>
       <c r="K22">
-        <v>8.186635422932504</v>
+        <v>7.5907565654730833</v>
       </c>
       <c r="L22">
-        <v>8.2303619958149685</v>
+        <v>7.8214504925566386</v>
       </c>
       <c r="M22">
-        <v>7.7220888317700123</v>
+        <v>7.6756475200736718</v>
       </c>
       <c r="N22">
-        <v>11.68952110225467</v>
+        <v>11.817277119719011</v>
       </c>
       <c r="O22">
-        <v>12.399020196390129</v>
+        <v>11.50178048316242</v>
       </c>
       <c r="P22">
-        <v>12.008168436428811</v>
+        <v>12.10592706919093</v>
       </c>
       <c r="Q22">
-        <v>12.099732786810581</v>
+        <v>11.83358294424721</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1605,52 +1522,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.104075690492214E-2</v>
+        <v>0.14684200592016119</v>
       </c>
       <c r="C23">
-        <v>-0.1136637540769172</v>
+        <v>0.4282054092854517</v>
       </c>
       <c r="D23">
-        <v>-0.24277149083309521</v>
+        <v>-0.21134035649332419</v>
       </c>
       <c r="E23">
-        <v>0.39440435603586482</v>
+        <v>-0.41080952923553371</v>
       </c>
       <c r="F23">
-        <v>3.539477266876097</v>
+        <v>3.63638769238332</v>
       </c>
       <c r="G23">
-        <v>4.3386353029807516</v>
+        <v>3.561108058915555</v>
       </c>
       <c r="H23">
-        <v>4.1592284087707112</v>
+        <v>3.99496626352364</v>
       </c>
       <c r="I23">
-        <v>4.1771954422026427</v>
+        <v>3.7279955696693108</v>
       </c>
       <c r="J23">
-        <v>8.2646514751212319</v>
+        <v>8.0076390981085428</v>
       </c>
       <c r="K23">
-        <v>7.9544937652293672</v>
+        <v>8.4207349594360625</v>
       </c>
       <c r="L23">
-        <v>7.6629617818877431</v>
+        <v>7.9670506742129694</v>
       </c>
       <c r="M23">
-        <v>7.6310995774896542</v>
+        <v>8.1094934187196692</v>
       </c>
       <c r="N23">
-        <v>11.875802473507941</v>
+        <v>12.0877133317583</v>
       </c>
       <c r="O23">
-        <v>12.408120528893701</v>
+        <v>11.539933321520429</v>
       </c>
       <c r="P23">
-        <v>12.258372679547261</v>
+        <v>12.34650870137269</v>
       </c>
       <c r="Q23">
-        <v>12.127574628777239</v>
+        <v>11.921686997468321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1658,52 +1575,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.49223483554051639</v>
+        <v>0.43182497825383442</v>
       </c>
       <c r="C24">
-        <v>-0.1038147818711674</v>
+        <v>0.26463929136804859</v>
       </c>
       <c r="D24">
-        <v>4.2519743105961183E-2</v>
+        <v>-0.14546846866860419</v>
       </c>
       <c r="E24">
-        <v>-0.44125580799062142</v>
+        <v>-0.3484782647829201</v>
       </c>
       <c r="F24">
-        <v>3.9810658392195291</v>
+        <v>4.215326691767264</v>
       </c>
       <c r="G24">
-        <v>3.7691902174874281</v>
+        <v>4.3296766806909943</v>
       </c>
       <c r="H24">
-        <v>4.399121248867103</v>
+        <v>3.6445278819327052</v>
       </c>
       <c r="I24">
-        <v>4.4264275236735129</v>
+        <v>3.6890770439461451</v>
       </c>
       <c r="J24">
-        <v>8.0656394479815265</v>
+        <v>7.8392007916309776</v>
       </c>
       <c r="K24">
-        <v>8.3936913953164982</v>
+        <v>8.1926534425472788</v>
       </c>
       <c r="L24">
-        <v>8.3557194230755574</v>
+        <v>7.5993936902572292</v>
       </c>
       <c r="M24">
-        <v>8.317260954645306</v>
+        <v>7.9716704626837611</v>
       </c>
       <c r="N24">
-        <v>12.070932708607479</v>
+        <v>12.29870237802179</v>
       </c>
       <c r="O24">
-        <v>11.59515194252578</v>
+        <v>11.821874555214819</v>
       </c>
       <c r="P24">
-        <v>12.384432162370191</v>
+        <v>12.11633994015318</v>
       </c>
       <c r="Q24">
-        <v>11.628796024992941</v>
+        <v>12.121702973122471</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -1711,52 +1628,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.35759771581502242</v>
+        <v>-6.7764151351701329E-4</v>
       </c>
       <c r="C25">
-        <v>-0.1067187536339743</v>
+        <v>0.20117839380072891</v>
       </c>
       <c r="D25">
-        <v>0.14501075845610681</v>
+        <v>-0.24032560333883971</v>
       </c>
       <c r="E25">
-        <v>-7.4489748836290781E-2</v>
+        <v>-0.1186222675825785</v>
       </c>
       <c r="F25">
-        <v>3.7230574511806722</v>
+        <v>3.509583412514683</v>
       </c>
       <c r="G25">
-        <v>4.0752442719719824</v>
+        <v>4.388847563015208</v>
       </c>
       <c r="H25">
-        <v>4.1835715916252711</v>
+        <v>4.1323106636131373</v>
       </c>
       <c r="I25">
-        <v>3.9925123460754568</v>
+        <v>3.9419519474168978</v>
       </c>
       <c r="J25">
-        <v>8.2399193104038524</v>
+        <v>7.769549749390424</v>
       </c>
       <c r="K25">
-        <v>8.3387669783884597</v>
+        <v>7.8856582950112859</v>
       </c>
       <c r="L25">
-        <v>7.8767696863042538</v>
+        <v>7.6920227211006313</v>
       </c>
       <c r="M25">
-        <v>7.7462530874896594</v>
+        <v>7.5273267416044014</v>
       </c>
       <c r="N25">
-        <v>11.808701734649651</v>
+        <v>12.25280862225209</v>
       </c>
       <c r="O25">
-        <v>11.65981208675122</v>
+        <v>11.94357772080944</v>
       </c>
       <c r="P25">
-        <v>12.36490547611742</v>
+        <v>11.53676605612576</v>
       </c>
       <c r="Q25">
-        <v>12.088441318108019</v>
+        <v>12.10423272908537</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1764,52 +1681,52 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.17149937568489471</v>
+        <v>0.16999735723704151</v>
       </c>
       <c r="C26">
-        <v>0.36673333790567059</v>
+        <v>-7.7771941216254192E-2</v>
       </c>
       <c r="D26">
-        <v>-0.29417060925277377</v>
+        <v>0.42187018423906658</v>
       </c>
       <c r="E26">
-        <v>0.15086971424927181</v>
+        <v>0.39104289583629032</v>
       </c>
       <c r="F26">
-        <v>4.4961044896048374</v>
+        <v>3.542934237676179</v>
       </c>
       <c r="G26">
-        <v>4.2762586650032564</v>
+        <v>4.0299708633225899</v>
       </c>
       <c r="H26">
-        <v>4.3907359222415927</v>
+        <v>4.2549881070898596</v>
       </c>
       <c r="I26">
-        <v>3.9721413753791008</v>
+        <v>3.5756430743232741</v>
       </c>
       <c r="J26">
-        <v>7.5694815564672551</v>
+        <v>8.4699124446645762</v>
       </c>
       <c r="K26">
-        <v>8.0344126316056883</v>
+        <v>8.1450101484790309</v>
       </c>
       <c r="L26">
-        <v>8.3210960621878893</v>
+        <v>7.8303565208275421</v>
       </c>
       <c r="M26">
-        <v>8.2440495594614287</v>
+        <v>7.9002713802008824</v>
       </c>
       <c r="N26">
-        <v>12.440536521047051</v>
+        <v>12.222836689613899</v>
       </c>
       <c r="O26">
-        <v>12.403805174654551</v>
+        <v>12.37476027684581</v>
       </c>
       <c r="P26">
-        <v>11.63100817488178</v>
+        <v>11.61994459236036</v>
       </c>
       <c r="Q26">
-        <v>12.28340888021485</v>
+        <v>12.424881159179879</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1817,52 +1734,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.429104247157436</v>
+        <v>7.8477793335245849E-2</v>
       </c>
       <c r="C27">
-        <v>-6.8129893987348922E-2</v>
+        <v>0.48566960533646403</v>
       </c>
       <c r="D27">
-        <v>0.4628829142077715</v>
+        <v>0.242906184056805</v>
       </c>
       <c r="E27">
-        <v>0.21763080309325161</v>
+        <v>-0.43195179062060751</v>
       </c>
       <c r="F27">
-        <v>3.6810897274404302</v>
+        <v>3.7982783063845948</v>
       </c>
       <c r="G27">
-        <v>4.4603748737210598</v>
+        <v>4.0839865798492196</v>
       </c>
       <c r="H27">
-        <v>4.3852183577045993</v>
+        <v>3.8688578270087501</v>
       </c>
       <c r="I27">
-        <v>4.2078811719317102</v>
+        <v>3.9486649100235232</v>
       </c>
       <c r="J27">
-        <v>8.0032123258446379</v>
+        <v>7.9351553190964328</v>
       </c>
       <c r="K27">
-        <v>7.6435598337733639</v>
+        <v>7.732114152950972</v>
       </c>
       <c r="L27">
-        <v>8.3374212002521784</v>
+        <v>8.060095989088321</v>
       </c>
       <c r="M27">
-        <v>8.4172303906132573</v>
+        <v>8.3772878330493157</v>
       </c>
       <c r="N27">
-        <v>12.483248719896681</v>
+        <v>12.07285366890383</v>
       </c>
       <c r="O27">
-        <v>11.82088219826373</v>
+        <v>12.21035175763857</v>
       </c>
       <c r="P27">
-        <v>12.20018059357171</v>
+        <v>12.36919333679394</v>
       </c>
       <c r="Q27">
-        <v>11.530167014192079</v>
+        <v>11.991185234972489</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -1870,52 +1787,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.14260088324774339</v>
+        <v>0.26564110884959757</v>
       </c>
       <c r="C28">
-        <v>0.28699318876527918</v>
+        <v>-0.32659588591801081</v>
       </c>
       <c r="D28">
-        <v>-0.36991716056148932</v>
+        <v>-0.36385456193436061</v>
       </c>
       <c r="E28">
-        <v>0.38533319584800668</v>
+        <v>0.20232061260178039</v>
       </c>
       <c r="F28">
-        <v>4.2157250748369153</v>
+        <v>4.0361050442619231</v>
       </c>
       <c r="G28">
-        <v>3.514962247388564</v>
+        <v>4.2568558829541292</v>
       </c>
       <c r="H28">
-        <v>3.8676593767764911</v>
+        <v>4.1060924531102732</v>
       </c>
       <c r="I28">
-        <v>4.3282308643407896</v>
+        <v>3.8039817809432228</v>
       </c>
       <c r="J28">
-        <v>8.2209289046937428</v>
+        <v>8.3359295783652403</v>
       </c>
       <c r="K28">
-        <v>8.3613761223040743</v>
+        <v>7.9131859197884964</v>
       </c>
       <c r="L28">
-        <v>7.9662684814050344</v>
+        <v>7.8561896221304863</v>
       </c>
       <c r="M28">
-        <v>8.0550865006479171</v>
+        <v>8.4530349074622357</v>
       </c>
       <c r="N28">
-        <v>12.314602823496021</v>
+        <v>11.91059035485495</v>
       </c>
       <c r="O28">
-        <v>11.69672840907822</v>
+        <v>12.458626163233721</v>
       </c>
       <c r="P28">
-        <v>12.2374829478017</v>
+        <v>12.050145349868901</v>
       </c>
       <c r="Q28">
-        <v>11.66056063005499</v>
+        <v>11.812990351055319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -1923,52 +1840,52 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.26901015167466102</v>
+        <v>0.11816856804197171</v>
       </c>
       <c r="C29">
-        <v>-0.47325825250698511</v>
+        <v>-0.41968328460152748</v>
       </c>
       <c r="D29">
-        <v>-3.4846403463207887E-2</v>
+        <v>-0.1157118042594667</v>
       </c>
       <c r="E29">
-        <v>0.39810118265955918</v>
+        <v>0.12266610505013439</v>
       </c>
       <c r="F29">
-        <v>3.6225520201414199</v>
+        <v>4.4596612861388554</v>
       </c>
       <c r="G29">
-        <v>4.12251943444614</v>
+        <v>3.574612374512625</v>
       </c>
       <c r="H29">
-        <v>3.8462133654872872</v>
+        <v>4.0022840717257404</v>
       </c>
       <c r="I29">
-        <v>3.8057523243170719</v>
+        <v>4.0629402753376489</v>
       </c>
       <c r="J29">
-        <v>7.5363958996713212</v>
+        <v>7.5199962064747501</v>
       </c>
       <c r="K29">
-        <v>7.7603390416779128</v>
+        <v>7.5000532458882043</v>
       </c>
       <c r="L29">
-        <v>8.042079920539809</v>
+        <v>8.1645086643261902</v>
       </c>
       <c r="M29">
-        <v>7.6125909266439784</v>
+        <v>8.1369542738428429</v>
       </c>
       <c r="N29">
-        <v>11.51711536159916</v>
+        <v>12.07675856203244</v>
       </c>
       <c r="O29">
-        <v>12.433486530118049</v>
+        <v>11.785275055526411</v>
       </c>
       <c r="P29">
-        <v>12.29039903674547</v>
+        <v>12.346751336240249</v>
       </c>
       <c r="Q29">
-        <v>12.30963002872668</v>
+        <v>11.924161035527341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -1976,52 +1893,52 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.41697670235450712</v>
+        <v>0.30054798906112318</v>
       </c>
       <c r="C30">
-        <v>0.28757973065073938</v>
+        <v>-0.19199228030869911</v>
       </c>
       <c r="D30">
-        <v>0.45617660202905441</v>
+        <v>0.39974286039812368</v>
       </c>
       <c r="E30">
-        <v>7.9844415604496621E-2</v>
+        <v>-8.4593088843486486E-2</v>
       </c>
       <c r="F30">
-        <v>4.4604272673603251</v>
+        <v>3.9893742100785858</v>
       </c>
       <c r="G30">
-        <v>3.6196927743382781</v>
+        <v>4.2654173022319917</v>
       </c>
       <c r="H30">
-        <v>4.4355368076249393</v>
+        <v>3.5693984355042412</v>
       </c>
       <c r="I30">
-        <v>4.4252850708090348</v>
+        <v>3.7577298936678298</v>
       </c>
       <c r="J30">
-        <v>7.7307338321627572</v>
+        <v>8.339952372865822</v>
       </c>
       <c r="K30">
-        <v>7.7823702353321247</v>
+        <v>7.6932326192728553</v>
       </c>
       <c r="L30">
-        <v>7.8622067671389306</v>
+        <v>8.3312293493998659</v>
       </c>
       <c r="M30">
-        <v>7.5688793607975962</v>
+        <v>7.7953030364578382</v>
       </c>
       <c r="N30">
-        <v>11.65851944859215</v>
+        <v>11.92867189077695</v>
       </c>
       <c r="O30">
-        <v>11.594828534731031</v>
+        <v>11.697130874092339</v>
       </c>
       <c r="P30">
-        <v>12.018791894449389</v>
+        <v>12.299124754525121</v>
       </c>
       <c r="Q30">
-        <v>12.005913145657759</v>
+        <v>12.349845518525211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -2029,52 +1946,52 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.1156489129987668</v>
+        <v>0.4950099130560508</v>
       </c>
       <c r="C31">
-        <v>8.1248368196742748E-2</v>
+        <v>-0.2675308563683706</v>
       </c>
       <c r="D31">
-        <v>0.15970322146606719</v>
+        <v>0.32316431354048542</v>
       </c>
       <c r="E31">
-        <v>-0.34221804258569632</v>
+        <v>0.3807463920551899</v>
       </c>
       <c r="F31">
-        <v>3.8711851293457191</v>
+        <v>4.0341303386999154</v>
       </c>
       <c r="G31">
-        <v>3.6002294611568288</v>
+        <v>4.0228066881172504</v>
       </c>
       <c r="H31">
-        <v>3.6898166920629869</v>
+        <v>3.8336613694991279</v>
       </c>
       <c r="I31">
-        <v>4.2647984532527277</v>
+        <v>3.9712745951467761</v>
       </c>
       <c r="J31">
-        <v>7.7283500358983739</v>
+        <v>7.5143916256442171</v>
       </c>
       <c r="K31">
-        <v>7.9281738102741341</v>
+        <v>7.7857737913551617</v>
       </c>
       <c r="L31">
-        <v>8.4803710889030182</v>
+        <v>8.1225344852752919</v>
       </c>
       <c r="M31">
-        <v>7.990456705462976</v>
+        <v>7.6402746448186694</v>
       </c>
       <c r="N31">
-        <v>12.402459068675659</v>
+        <v>12.14589562296886</v>
       </c>
       <c r="O31">
-        <v>11.57065501160832</v>
+        <v>12.12809631828576</v>
       </c>
       <c r="P31">
-        <v>11.68161876833185</v>
+        <v>11.61682385822224</v>
       </c>
       <c r="Q31">
-        <v>12.264560610151831</v>
+        <v>12.46241941588077</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -2082,52 +1999,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.32812998326042991</v>
+        <v>-0.20782680702979359</v>
       </c>
       <c r="C32">
-        <v>-0.41860392364055549</v>
+        <v>0.49663322328731091</v>
       </c>
       <c r="D32">
-        <v>-0.10515317776481251</v>
+        <v>0.37888249372415023</v>
       </c>
       <c r="E32">
-        <v>-0.47964574632639978</v>
+        <v>-0.48215230198108378</v>
       </c>
       <c r="F32">
-        <v>4.2915895302547771</v>
+        <v>3.766292625605673</v>
       </c>
       <c r="G32">
-        <v>4.455323650886716</v>
+        <v>3.7392622361944849</v>
       </c>
       <c r="H32">
-        <v>4.3229773537057712</v>
+        <v>3.681115515235994</v>
       </c>
       <c r="I32">
-        <v>4.3531363861094876</v>
+        <v>4.3558175440666664</v>
       </c>
       <c r="J32">
-        <v>8.2820665402941103</v>
+        <v>7.6035358395258772</v>
       </c>
       <c r="K32">
-        <v>8.2925436619013713</v>
+        <v>8.426118337323512</v>
       </c>
       <c r="L32">
-        <v>8.0797310456174269</v>
+        <v>8.2376622380953197</v>
       </c>
       <c r="M32">
-        <v>8.4556955257415147</v>
+        <v>7.9354951476041924</v>
       </c>
       <c r="N32">
-        <v>11.86900711379092</v>
+        <v>12.242191259657851</v>
       </c>
       <c r="O32">
-        <v>12.329475757269041</v>
+        <v>11.611394643935609</v>
       </c>
       <c r="P32">
-        <v>12.30245402531825</v>
+        <v>11.77153928665088</v>
       </c>
       <c r="Q32">
-        <v>12.3628180918176</v>
+        <v>11.901771668352181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -2135,52 +2052,52 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-8.9426064448439258E-2</v>
+        <v>-8.3511609950427168E-2</v>
       </c>
       <c r="C33">
-        <v>6.8784945228715699E-2</v>
+        <v>0.34307081220299002</v>
       </c>
       <c r="D33">
-        <v>0.49733889004469273</v>
+        <v>-0.40667569648360852</v>
       </c>
       <c r="E33">
-        <v>-0.23617298109539259</v>
+        <v>0.2016903834625956</v>
       </c>
       <c r="F33">
-        <v>3.5735006749754552</v>
+        <v>4.4513035172797677</v>
       </c>
       <c r="G33">
-        <v>3.8970241327220738</v>
+        <v>4.4299811683904498</v>
       </c>
       <c r="H33">
-        <v>4.0178659854430236</v>
+        <v>3.916984059567274</v>
       </c>
       <c r="I33">
-        <v>4.437314632385208</v>
+        <v>4.4794444560310636</v>
       </c>
       <c r="J33">
-        <v>8.2031667972061673</v>
+        <v>8.0672546823339335</v>
       </c>
       <c r="K33">
-        <v>7.9685251702402136</v>
+        <v>7.8302361051950866</v>
       </c>
       <c r="L33">
-        <v>8.3274266293330008</v>
+        <v>7.6210268710054123</v>
       </c>
       <c r="M33">
-        <v>7.7546728665475957</v>
+        <v>7.8807875495829496</v>
       </c>
       <c r="N33">
-        <v>11.98775032412302</v>
+        <v>11.63423532018253</v>
       </c>
       <c r="O33">
-        <v>11.572847223032181</v>
+        <v>12.419284272049881</v>
       </c>
       <c r="P33">
-        <v>12.28733071833283</v>
+        <v>11.61627729958138</v>
       </c>
       <c r="Q33">
-        <v>12.10955491980676</v>
+        <v>12.11747559771851</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -2188,52 +2105,52 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.47679503857914668</v>
+        <v>0.48738326616183558</v>
       </c>
       <c r="C34">
-        <v>-0.41638376608467542</v>
+        <v>-0.20858099960880311</v>
       </c>
       <c r="D34">
-        <v>0.46880218378678851</v>
+        <v>6.5132948940955004E-2</v>
       </c>
       <c r="E34">
-        <v>-0.28254229854342289</v>
+        <v>0.33100978017941851</v>
       </c>
       <c r="F34">
-        <v>3.7567314714170199</v>
+        <v>4.3461572371367643</v>
       </c>
       <c r="G34">
-        <v>3.6322215739510768</v>
+        <v>3.5110774331492269</v>
       </c>
       <c r="H34">
-        <v>3.5347623402090012</v>
+        <v>4.2532284159376408</v>
       </c>
       <c r="I34">
-        <v>3.6703357789258879</v>
+        <v>3.945968289432189</v>
       </c>
       <c r="J34">
-        <v>8.0190663785660909</v>
+        <v>7.837802262014236</v>
       </c>
       <c r="K34">
-        <v>8.0376214081380244</v>
+        <v>8.2349746529072778</v>
       </c>
       <c r="L34">
-        <v>7.8018485918099669</v>
+        <v>8.2931889809925288</v>
       </c>
       <c r="M34">
-        <v>8.2103857183974291</v>
+        <v>8.4387326016592432</v>
       </c>
       <c r="N34">
-        <v>11.664983652319821</v>
+        <v>12.305910251670531</v>
       </c>
       <c r="O34">
-        <v>12.02116218748905</v>
+        <v>11.73869518526659</v>
       </c>
       <c r="P34">
-        <v>12.360805381763729</v>
+        <v>12.157251667388531</v>
       </c>
       <c r="Q34">
-        <v>11.651829818527959</v>
+        <v>11.916798405204281</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -2241,52 +2158,52 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.8814739488966796E-2</v>
+        <v>-0.10634242333360081</v>
       </c>
       <c r="C35">
-        <v>0.44439900681662658</v>
+        <v>-0.38680307074438441</v>
       </c>
       <c r="D35">
-        <v>0.16310022020918161</v>
+        <v>0.28325481469563579</v>
       </c>
       <c r="E35">
-        <v>3.4277114597109248E-2</v>
+        <v>6.6716498075688691E-2</v>
       </c>
       <c r="F35">
-        <v>4.2773173054696372</v>
+        <v>3.5777808736467192</v>
       </c>
       <c r="G35">
-        <v>3.654261556449482</v>
+        <v>3.8038490518026049</v>
       </c>
       <c r="H35">
-        <v>3.7351152892878829</v>
+        <v>4.0547472187261624</v>
       </c>
       <c r="I35">
-        <v>3.8569198607670279</v>
+        <v>3.6231080367014319</v>
       </c>
       <c r="J35">
-        <v>8.0744593752370157</v>
+        <v>8.2638740459045916</v>
       </c>
       <c r="K35">
-        <v>8.213766679210627</v>
+        <v>7.8938894141535636</v>
       </c>
       <c r="L35">
-        <v>7.6398905984204504</v>
+        <v>8.3129296099851953</v>
       </c>
       <c r="M35">
-        <v>7.6985601360189584</v>
+        <v>7.8794784941532852</v>
       </c>
       <c r="N35">
-        <v>11.59580472732441</v>
+        <v>11.571604325076221</v>
       </c>
       <c r="O35">
-        <v>11.736663372632041</v>
+        <v>11.623440644294</v>
       </c>
       <c r="P35">
-        <v>11.714001326191759</v>
+        <v>11.63019985824825</v>
       </c>
       <c r="Q35">
-        <v>12.155067291185309</v>
+        <v>11.778235353047</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -2294,52 +2211,52 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.27491689944283121</v>
+        <v>2.4615252625569291E-2</v>
       </c>
       <c r="C36">
-        <v>-1.8701197350852291E-2</v>
+        <v>-0.48889306025499679</v>
       </c>
       <c r="D36">
-        <v>-5.4720705593726437E-2</v>
+        <v>0.25488788811777091</v>
       </c>
       <c r="E36">
-        <v>0.27583505473210451</v>
+        <v>0.38137376053325728</v>
       </c>
       <c r="F36">
-        <v>4.4677174938721151</v>
+        <v>3.5409278966099711</v>
       </c>
       <c r="G36">
-        <v>4.4111650287585764</v>
+        <v>3.9486335060864959</v>
       </c>
       <c r="H36">
-        <v>4.2103638060258746</v>
+        <v>4.1358363265712441</v>
       </c>
       <c r="I36">
-        <v>4.4453937664139893</v>
+        <v>3.9343352126101991</v>
       </c>
       <c r="J36">
-        <v>7.7068731959071863</v>
+        <v>8.2691209318135535</v>
       </c>
       <c r="K36">
-        <v>8.097071393661464</v>
+        <v>7.8257785361950916</v>
       </c>
       <c r="L36">
-        <v>8.2429169068070109</v>
+        <v>8.1673368469810903</v>
       </c>
       <c r="M36">
-        <v>7.7797128994086151</v>
+        <v>7.6075095379874202</v>
       </c>
       <c r="N36">
-        <v>12.49847525315942</v>
+        <v>12.15516019072089</v>
       </c>
       <c r="O36">
-        <v>12.20851464783822</v>
+        <v>11.85356477284491</v>
       </c>
       <c r="P36">
-        <v>11.618328902826541</v>
+        <v>12.013782074533671</v>
       </c>
       <c r="Q36">
-        <v>12.393939864717529</v>
+        <v>12.08007431684007</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -2347,52 +2264,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.24070137482335549</v>
+        <v>-0.24764579418013541</v>
       </c>
       <c r="C37">
-        <v>-0.46169032275364658</v>
+        <v>-0.1283333020803582</v>
       </c>
       <c r="D37">
-        <v>1.346413420767578E-2</v>
+        <v>0.45794431150278758</v>
       </c>
       <c r="E37">
-        <v>-0.27034537595341568</v>
+        <v>0.1109002694301386</v>
       </c>
       <c r="F37">
-        <v>3.8537446849069261</v>
+        <v>4.004971766248314</v>
       </c>
       <c r="G37">
-        <v>4.3086944776603922</v>
+        <v>4.4852302714389038</v>
       </c>
       <c r="H37">
-        <v>4.2703671433699819</v>
+        <v>3.9312280965149302</v>
       </c>
       <c r="I37">
-        <v>3.7949542994310579</v>
+        <v>3.6686554228424639</v>
       </c>
       <c r="J37">
-        <v>7.9686700122032681</v>
+        <v>7.564191295782166</v>
       </c>
       <c r="K37">
-        <v>7.8675530627655306</v>
+        <v>8.2724581673113882</v>
       </c>
       <c r="L37">
-        <v>7.7890798382487114</v>
+        <v>7.6114158112732726</v>
       </c>
       <c r="M37">
-        <v>7.7444795620236828</v>
+        <v>8.2240376465174361</v>
       </c>
       <c r="N37">
-        <v>11.52804214884495</v>
+        <v>12.07898447438791</v>
       </c>
       <c r="O37">
-        <v>12.44227708147714</v>
+        <v>12.2622725143331</v>
       </c>
       <c r="P37">
-        <v>11.852044986512711</v>
+        <v>12.01444618648895</v>
       </c>
       <c r="Q37">
-        <v>12.061629758819439</v>
+        <v>11.75740813800026</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -2400,52 +2317,52 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.29810765858363519</v>
+        <v>0.1394427866844922</v>
       </c>
       <c r="C38">
-        <v>-0.43831310645989302</v>
+        <v>-0.40482767211271509</v>
       </c>
       <c r="D38">
-        <v>6.05813060361583E-2</v>
+        <v>-0.45859539028837598</v>
       </c>
       <c r="E38">
-        <v>-0.38942027708032773</v>
+        <v>-0.2065658057550864</v>
       </c>
       <c r="F38">
-        <v>3.7367348800746538</v>
+        <v>3.797421106088338</v>
       </c>
       <c r="G38">
-        <v>3.7073828155774331</v>
+        <v>4.1609694689907588</v>
       </c>
       <c r="H38">
-        <v>4.1607312087869719</v>
+        <v>3.7778442461843191</v>
       </c>
       <c r="I38">
-        <v>3.9790819625910272</v>
+        <v>4.1741542814865547</v>
       </c>
       <c r="J38">
-        <v>8.1701916946980813</v>
+        <v>7.7201620222476723</v>
       </c>
       <c r="K38">
-        <v>8.0817642117578039</v>
+        <v>8.0416208607638389</v>
       </c>
       <c r="L38">
-        <v>7.8777123226697201</v>
+        <v>8.4402687921437245</v>
       </c>
       <c r="M38">
-        <v>7.9970978839406657</v>
+        <v>7.9321792726646523</v>
       </c>
       <c r="N38">
-        <v>12.354344548762411</v>
+        <v>11.81479952411757</v>
       </c>
       <c r="O38">
-        <v>11.99018258100109</v>
+        <v>12.10561133641564</v>
       </c>
       <c r="P38">
-        <v>12.373335026735811</v>
+        <v>12.27686510169328</v>
       </c>
       <c r="Q38">
-        <v>12.40153868958841</v>
+        <v>11.54801758258087</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2453,52 +2370,52 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.2407461877517455</v>
+        <v>0.17650511059033591</v>
       </c>
       <c r="C39">
-        <v>-0.11178345428468919</v>
+        <v>-0.2453774384662615</v>
       </c>
       <c r="D39">
-        <v>6.8315001037545842E-2</v>
+        <v>0.29158968016454839</v>
       </c>
       <c r="E39">
-        <v>7.7305332650084213E-2</v>
+        <v>7.5896490292103991E-2</v>
       </c>
       <c r="F39">
-        <v>3.7152999125771649</v>
+        <v>3.6570684231951831</v>
       </c>
       <c r="G39">
-        <v>4.1817424630007087</v>
+        <v>4.0130270493471851</v>
       </c>
       <c r="H39">
-        <v>4.2735187135294828</v>
+        <v>4.1865177065721326</v>
       </c>
       <c r="I39">
-        <v>3.9743973746152408</v>
+        <v>3.9461717973082462</v>
       </c>
       <c r="J39">
-        <v>7.6669935472850268</v>
+        <v>8.2994502881075665</v>
       </c>
       <c r="K39">
-        <v>8.1747507255251488</v>
+        <v>7.881438497697772</v>
       </c>
       <c r="L39">
-        <v>8.432776345867266</v>
+        <v>7.7748476388730952</v>
       </c>
       <c r="M39">
-        <v>7.7552246378475456</v>
+        <v>8.223163439652355</v>
       </c>
       <c r="N39">
-        <v>12.37791254313866</v>
+        <v>11.585795119949211</v>
       </c>
       <c r="O39">
-        <v>12.3972840051006</v>
+        <v>11.684493812721961</v>
       </c>
       <c r="P39">
-        <v>11.524386650755581</v>
+        <v>11.69980153583677</v>
       </c>
       <c r="Q39">
-        <v>11.97976319682798</v>
+        <v>11.929475515164309</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2506,52 +2423,52 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.21953962828973431</v>
+        <v>-0.40452715219783919</v>
       </c>
       <c r="C40">
-        <v>-0.22728261293440091</v>
+        <v>0.19305316299500411</v>
       </c>
       <c r="D40">
-        <v>0.39371906248139821</v>
+        <v>-5.2771112971076388E-2</v>
       </c>
       <c r="E40">
-        <v>-0.35773881910679478</v>
+        <v>-6.0897486959046176E-3</v>
       </c>
       <c r="F40">
-        <v>3.7269967534698889</v>
+        <v>3.7340217731529881</v>
       </c>
       <c r="G40">
-        <v>4.419672641914878</v>
+        <v>3.829270932908249</v>
       </c>
       <c r="H40">
-        <v>3.5625160269086522</v>
+        <v>4.3124617389145747</v>
       </c>
       <c r="I40">
-        <v>3.6592640273923451</v>
+        <v>3.6017858214601728</v>
       </c>
       <c r="J40">
-        <v>8.2641222558230929</v>
+        <v>7.8217209334077387</v>
       </c>
       <c r="K40">
-        <v>8.4308171909594396</v>
+        <v>7.863390414165278</v>
       </c>
       <c r="L40">
-        <v>7.5749191414211374</v>
+        <v>8.0159423384626081</v>
       </c>
       <c r="M40">
-        <v>7.5815415409225304</v>
+        <v>7.654899256592433</v>
       </c>
       <c r="N40">
-        <v>11.67541141988891</v>
+        <v>12.122707432829889</v>
       </c>
       <c r="O40">
-        <v>11.788723847904359</v>
+        <v>11.71814400997267</v>
       </c>
       <c r="P40">
-        <v>11.5141243909669</v>
+        <v>12.333534926134011</v>
       </c>
       <c r="Q40">
-        <v>12.048960357403709</v>
+        <v>12.367992732541831</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2559,52 +2476,52 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.13203873669912031</v>
+        <v>0.1793960657540713</v>
       </c>
       <c r="C41">
-        <v>-8.2849678711994112E-2</v>
+        <v>-0.41174926864681399</v>
       </c>
       <c r="D41">
-        <v>0.39579038914078363</v>
+        <v>-0.32245127966036052</v>
       </c>
       <c r="E41">
-        <v>-0.39896585952124619</v>
+        <v>-0.49077587292748859</v>
       </c>
       <c r="F41">
-        <v>3.8101893572819412</v>
+        <v>3.823948747695602</v>
       </c>
       <c r="G41">
-        <v>4.4451202387103868</v>
+        <v>4.2561330641579946</v>
       </c>
       <c r="H41">
-        <v>4.4440969744484509</v>
+        <v>4.0904065987697473</v>
       </c>
       <c r="I41">
-        <v>4.3135862521473642</v>
+        <v>3.8705948571124842</v>
       </c>
       <c r="J41">
-        <v>7.8623990287337246</v>
+        <v>7.5005481731734651</v>
       </c>
       <c r="K41">
-        <v>7.9826820712517836</v>
+        <v>8.1102755013075605</v>
       </c>
       <c r="L41">
-        <v>8.2947315301912941</v>
+        <v>7.8988818525686098</v>
       </c>
       <c r="M41">
-        <v>7.5750293172874308</v>
+        <v>8.4588831597788428</v>
       </c>
       <c r="N41">
-        <v>12.32846557871961</v>
+        <v>12.339353388277781</v>
       </c>
       <c r="O41">
-        <v>12.17150957126446</v>
+        <v>12.49788209501726</v>
       </c>
       <c r="P41">
-        <v>11.515870311690581</v>
+        <v>11.60659711379965</v>
       </c>
       <c r="Q41">
-        <v>11.51218559563767</v>
+        <v>11.7543480402967</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -2612,52 +2529,52 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.48331856069337947</v>
+        <v>2.7042222280121209E-2</v>
       </c>
       <c r="C42">
-        <v>0.300125261478009</v>
+        <v>-0.2038780125755352</v>
       </c>
       <c r="D42">
-        <v>-0.1213406035664297</v>
+        <v>0.28531656196788319</v>
       </c>
       <c r="E42">
-        <v>0.17947668534676761</v>
+        <v>0.12925614536645361</v>
       </c>
       <c r="F42">
-        <v>4.0934065705997256</v>
+        <v>3.76883601877929</v>
       </c>
       <c r="G42">
-        <v>3.7940072816211319</v>
+        <v>3.502435655365689</v>
       </c>
       <c r="H42">
-        <v>4.2697381613438239</v>
+        <v>4.3246816302447844</v>
       </c>
       <c r="I42">
-        <v>3.7443311712483811</v>
+        <v>4.3164515586260013</v>
       </c>
       <c r="J42">
-        <v>8.196939717862012</v>
+        <v>8.2575676189210583</v>
       </c>
       <c r="K42">
-        <v>8.0971608829096287</v>
+        <v>7.6694741632295633</v>
       </c>
       <c r="L42">
-        <v>7.6653419604116779</v>
+        <v>8.3022381948973152</v>
       </c>
       <c r="M42">
-        <v>8.3123733598607021</v>
+        <v>8.3252388273160527</v>
       </c>
       <c r="N42">
-        <v>12.37325719527456</v>
+        <v>12.363298604545109</v>
       </c>
       <c r="O42">
-        <v>12.04599640375727</v>
+        <v>11.94705827866045</v>
       </c>
       <c r="P42">
-        <v>11.81587551389903</v>
+        <v>11.984215910769411</v>
       </c>
       <c r="Q42">
-        <v>12.151999914733709</v>
+        <v>11.72881256116389</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2665,52 +2582,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.306114287327032E-2</v>
+        <v>0.13120638618692931</v>
       </c>
       <c r="C43">
-        <v>6.760125647870141E-2</v>
+        <v>-0.16126247759357409</v>
       </c>
       <c r="D43">
-        <v>-0.31969973334164892</v>
+        <v>-0.1292845693765021</v>
       </c>
       <c r="E43">
-        <v>-0.44013135445862628</v>
+        <v>0.2014359748724385</v>
       </c>
       <c r="F43">
-        <v>4.2470177957305086</v>
+        <v>4.457249367887913</v>
       </c>
       <c r="G43">
-        <v>3.9408867464612229</v>
+        <v>3.5999375103036861</v>
       </c>
       <c r="H43">
-        <v>4.2414261474960266</v>
+        <v>3.891249100927427</v>
       </c>
       <c r="I43">
-        <v>4.0093994458684747</v>
+        <v>3.909027908518139</v>
       </c>
       <c r="J43">
-        <v>7.9077656731538877</v>
+        <v>8.2266554221126107</v>
       </c>
       <c r="K43">
-        <v>7.669893009212478</v>
+        <v>8.194994092422295</v>
       </c>
       <c r="L43">
-        <v>8.0749376683944032</v>
+        <v>7.8954875369846294</v>
       </c>
       <c r="M43">
-        <v>8.4009479392536424</v>
+        <v>7.5023780190434302</v>
       </c>
       <c r="N43">
-        <v>11.74198494567081</v>
+        <v>11.865513043858449</v>
       </c>
       <c r="O43">
-        <v>11.81316137332162</v>
+        <v>12.29529950123867</v>
       </c>
       <c r="P43">
-        <v>12.39095176017956</v>
+        <v>11.65687120416159</v>
       </c>
       <c r="Q43">
-        <v>12.092522402950079</v>
+        <v>12.20536827579043</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -2718,52 +2635,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1078262548413591</v>
+        <v>-0.28139792513602252</v>
       </c>
       <c r="C44">
-        <v>-0.34612260097912539</v>
+        <v>0.4666603472468106</v>
       </c>
       <c r="D44">
-        <v>6.7710020883930966E-2</v>
+        <v>0.35491956386538642</v>
       </c>
       <c r="E44">
-        <v>0.31115035554102499</v>
+        <v>0.39340761277631708</v>
       </c>
       <c r="F44">
-        <v>4.3452202333680852</v>
+        <v>4.1383608377592829</v>
       </c>
       <c r="G44">
-        <v>4.3418202928025948</v>
+        <v>4.3087413011372009</v>
       </c>
       <c r="H44">
-        <v>4.255097117328634</v>
+        <v>4.1046333749491444</v>
       </c>
       <c r="I44">
-        <v>3.6274141487777358</v>
+        <v>3.5190980683959419</v>
       </c>
       <c r="J44">
-        <v>8.4650430687170584</v>
+        <v>7.9861789504562601</v>
       </c>
       <c r="K44">
-        <v>7.5993732557938474</v>
+        <v>7.6057007388046642</v>
       </c>
       <c r="L44">
-        <v>8.3985290688791849</v>
+        <v>7.8784834413214124</v>
       </c>
       <c r="M44">
-        <v>8.12856088143044</v>
+        <v>7.7655231968765612</v>
       </c>
       <c r="N44">
-        <v>12.499103557979829</v>
+        <v>11.91691066278946</v>
       </c>
       <c r="O44">
-        <v>12.11256680972018</v>
+        <v>12.362737254120569</v>
       </c>
       <c r="P44">
-        <v>11.84541534736503</v>
+        <v>12.202925084852049</v>
       </c>
       <c r="Q44">
-        <v>12.20006952899544</v>
+        <v>12.25662357492493</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2771,52 +2688,52 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.37865268411808051</v>
+        <v>0.47449259421922713</v>
       </c>
       <c r="C45">
-        <v>2.564288498365019E-2</v>
+        <v>0.39492148637022573</v>
       </c>
       <c r="D45">
-        <v>-3.8062354540011827E-2</v>
+        <v>0.38244640165803828</v>
       </c>
       <c r="E45">
-        <v>-0.11494810955808241</v>
+        <v>0.3954992249747834</v>
       </c>
       <c r="F45">
-        <v>3.810502824675845</v>
+        <v>3.709799549714758</v>
       </c>
       <c r="G45">
-        <v>4.2295865329009823</v>
+        <v>3.9518137673940301</v>
       </c>
       <c r="H45">
-        <v>4.3973032544159016</v>
+        <v>4.0358858777013786</v>
       </c>
       <c r="I45">
-        <v>4.402003964009408</v>
+        <v>3.6619651312367099</v>
       </c>
       <c r="J45">
-        <v>8.0402302810133897</v>
+        <v>7.8858769689850723</v>
       </c>
       <c r="K45">
-        <v>8.3537734266070132</v>
+        <v>7.737738092323827</v>
       </c>
       <c r="L45">
-        <v>7.5745535828643353</v>
+        <v>7.6314558198179441</v>
       </c>
       <c r="M45">
-        <v>8.4242730581953111</v>
+        <v>8.3730806785778817</v>
       </c>
       <c r="N45">
-        <v>11.98474189328822</v>
+        <v>11.707081010595029</v>
       </c>
       <c r="O45">
-        <v>12.365466209586939</v>
+        <v>11.94917425857375</v>
       </c>
       <c r="P45">
-        <v>11.67930342141565</v>
+        <v>11.58930736157947</v>
       </c>
       <c r="Q45">
-        <v>12.39184954893037</v>
+        <v>11.811919507673631</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -2824,52 +2741,52 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.47880604985225389</v>
+        <v>0.24054779291129891</v>
       </c>
       <c r="C46">
-        <v>-0.181379159354039</v>
+        <v>0.43451476496967067</v>
       </c>
       <c r="D46">
-        <v>0.32737814616638722</v>
+        <v>0.46331654406495998</v>
       </c>
       <c r="E46">
-        <v>0.45038324817579067</v>
+        <v>0.2751547408320878</v>
       </c>
       <c r="F46">
-        <v>3.786154787327523</v>
+        <v>3.9543679300538921</v>
       </c>
       <c r="G46">
-        <v>4.2135868777561809</v>
+        <v>4.3884857315816816</v>
       </c>
       <c r="H46">
-        <v>3.7982643889725969</v>
+        <v>4.3895802254082783</v>
       </c>
       <c r="I46">
-        <v>3.5525167969140168</v>
+        <v>4.1942209353695574</v>
       </c>
       <c r="J46">
-        <v>8.3883868490163263</v>
+        <v>7.9851941751742874</v>
       </c>
       <c r="K46">
-        <v>8.1255681966378681</v>
+        <v>7.6252120756874744</v>
       </c>
       <c r="L46">
-        <v>8.0747321270399386</v>
+        <v>7.576399062398818</v>
       </c>
       <c r="M46">
-        <v>8.2785878781795574</v>
+        <v>8.3181687276942959</v>
       </c>
       <c r="N46">
-        <v>11.928537389817579</v>
+        <v>11.68476661153835</v>
       </c>
       <c r="O46">
-        <v>12.17576666182415</v>
+        <v>12.115168957092569</v>
       </c>
       <c r="P46">
-        <v>11.615766418195911</v>
+        <v>11.864728280436321</v>
       </c>
       <c r="Q46">
-        <v>12.34478820908811</v>
+        <v>11.777003217367159</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -2877,52 +2794,52 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.1472716811859311E-2</v>
+        <v>-0.16040978914417631</v>
       </c>
       <c r="C47">
-        <v>-9.4833660335581826E-2</v>
+        <v>-0.2339161585209899</v>
       </c>
       <c r="D47">
-        <v>-0.37693019692228658</v>
+        <v>-0.49080031522368073</v>
       </c>
       <c r="E47">
-        <v>-0.49384032631169589</v>
+        <v>0.23671839270687581</v>
       </c>
       <c r="F47">
-        <v>4.2943785836828976</v>
+        <v>3.8422728234442292</v>
       </c>
       <c r="G47">
-        <v>3.7122967480632241</v>
+        <v>4.3430085727876158</v>
       </c>
       <c r="H47">
-        <v>3.964250596715293</v>
+        <v>3.638186126278661</v>
       </c>
       <c r="I47">
-        <v>4.2300290164664602</v>
+        <v>3.7761005216364461</v>
       </c>
       <c r="J47">
-        <v>7.777750030506124</v>
+        <v>8.2121618629823061</v>
       </c>
       <c r="K47">
-        <v>7.9255375744549301</v>
+        <v>8.0098092448273537</v>
       </c>
       <c r="L47">
-        <v>8.4167466435280094</v>
+        <v>7.751158393284741</v>
       </c>
       <c r="M47">
-        <v>8.4447334825698928</v>
+        <v>8.3978157158277593</v>
       </c>
       <c r="N47">
-        <v>12.42168598985708</v>
+        <v>12.13584282437921</v>
       </c>
       <c r="O47">
-        <v>12.241330515334949</v>
+        <v>11.510361933108729</v>
       </c>
       <c r="P47">
-        <v>12.48047458728974</v>
+        <v>11.70681184335473</v>
       </c>
       <c r="Q47">
-        <v>12.411530251474581</v>
+        <v>12.327037213796091</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -2930,52 +2847,52 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.31176031609334959</v>
+        <v>-7.0550449731332288E-2</v>
       </c>
       <c r="C48">
-        <v>-0.27909623156153129</v>
+        <v>0.4070506050517344</v>
       </c>
       <c r="D48">
-        <v>0.37716837077423598</v>
+        <v>-0.1207723127293933</v>
       </c>
       <c r="E48">
-        <v>0.41300548486204092</v>
+        <v>0.40586746159750542</v>
       </c>
       <c r="F48">
-        <v>4.0841316855464056</v>
+        <v>4.4779572660888221</v>
       </c>
       <c r="G48">
-        <v>4.0702929560389158</v>
+        <v>3.9916315849717861</v>
       </c>
       <c r="H48">
-        <v>3.95919041012296</v>
+        <v>4.4947862608580014</v>
       </c>
       <c r="I48">
-        <v>3.6613378997814068</v>
+        <v>3.6118470000724572</v>
       </c>
       <c r="J48">
-        <v>8.3973268332437812</v>
+        <v>8.3410595086002921</v>
       </c>
       <c r="K48">
-        <v>7.9541365349156088</v>
+        <v>8.4796599398343684</v>
       </c>
       <c r="L48">
-        <v>7.5102402759860469</v>
+        <v>7.5251563905068526</v>
       </c>
       <c r="M48">
-        <v>7.5410134384585739</v>
+        <v>7.6544831649625289</v>
       </c>
       <c r="N48">
-        <v>11.59150784352641</v>
+        <v>11.80014278546397</v>
       </c>
       <c r="O48">
-        <v>11.78497099458624</v>
+        <v>12.323004307323719</v>
       </c>
       <c r="P48">
-        <v>11.76577545179121</v>
+        <v>12.375092180665369</v>
       </c>
       <c r="Q48">
-        <v>12.036248479009711</v>
+        <v>12.398629087392621</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -2983,52 +2900,52 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.2097208997836798</v>
+        <v>-0.40573106438158429</v>
       </c>
       <c r="C49">
-        <v>1.563861724838889E-2</v>
+        <v>-0.47297025044536672</v>
       </c>
       <c r="D49">
-        <v>1.7579704606983548E-2</v>
+        <v>-6.8876718278358728E-2</v>
       </c>
       <c r="E49">
-        <v>0.2202878044196972</v>
+        <v>-1.075270828330355E-2</v>
       </c>
       <c r="F49">
-        <v>3.8338935285831561</v>
+        <v>4.2664925866949206</v>
       </c>
       <c r="G49">
-        <v>4.284263216502028</v>
+        <v>4.3868654632055781</v>
       </c>
       <c r="H49">
-        <v>3.951396096334896</v>
+        <v>3.5991157091630241</v>
       </c>
       <c r="I49">
-        <v>4.0004004797867347</v>
+        <v>3.578138327809198</v>
       </c>
       <c r="J49">
-        <v>7.8345356867005904</v>
+        <v>7.6924354361397631</v>
       </c>
       <c r="K49">
-        <v>7.6373343642482814</v>
+        <v>7.9133434103735034</v>
       </c>
       <c r="L49">
-        <v>7.7644658479856714</v>
+        <v>8.092477548742254</v>
       </c>
       <c r="M49">
-        <v>8.4651201795098814</v>
+        <v>8.277717459342762</v>
       </c>
       <c r="N49">
-        <v>11.8234176498029</v>
+        <v>12.3676643053526</v>
       </c>
       <c r="O49">
-        <v>12.31674267237246</v>
+        <v>11.61904722475488</v>
       </c>
       <c r="P49">
-        <v>12.327246914620821</v>
+        <v>12.272698389583031</v>
       </c>
       <c r="Q49">
-        <v>12.118319642439371</v>
+        <v>11.93417203238582</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -3036,52 +2953,52 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.33013693140463002</v>
+        <v>-0.41238473335591752</v>
       </c>
       <c r="C50">
-        <v>-0.47316494583363222</v>
+        <v>0.47594369887290089</v>
       </c>
       <c r="D50">
-        <v>-0.17307250054017859</v>
+        <v>-7.4810981296278611E-2</v>
       </c>
       <c r="E50">
-        <v>-0.13443917290154361</v>
+        <v>0.26982466422295798</v>
       </c>
       <c r="F50">
-        <v>3.8821574296465</v>
+        <v>4.3832994243622903</v>
       </c>
       <c r="G50">
-        <v>3.9925790329832438</v>
+        <v>3.6720722484993908</v>
       </c>
       <c r="H50">
-        <v>4.0009743535212632</v>
+        <v>4.1017829610964132</v>
       </c>
       <c r="I50">
-        <v>3.9092819800257139</v>
+        <v>3.5587256326912589</v>
       </c>
       <c r="J50">
-        <v>8.1542563728634079</v>
+        <v>7.5436609745519903</v>
       </c>
       <c r="K50">
-        <v>8.1880669461148781</v>
+        <v>8.1033371535743601</v>
       </c>
       <c r="L50">
-        <v>8.0106958153557617</v>
+        <v>7.9894272702646179</v>
       </c>
       <c r="M50">
-        <v>7.7489350986682481</v>
+        <v>8.4828836229249553</v>
       </c>
       <c r="N50">
-        <v>12.028603190814209</v>
+        <v>12.230809908426069</v>
       </c>
       <c r="O50">
-        <v>12.43576749487708</v>
+        <v>11.73808092168187</v>
       </c>
       <c r="P50">
-        <v>12.21212090146361</v>
+        <v>12.47464023101052</v>
       </c>
       <c r="Q50">
-        <v>11.5464768467657</v>
+        <v>11.855354669369079</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -3089,52 +3006,52 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.21413491063806181</v>
+        <v>-5.8881245530408848E-2</v>
       </c>
       <c r="C51">
-        <v>6.7139238725818284E-2</v>
+        <v>0.1133588126321604</v>
       </c>
       <c r="D51">
-        <v>-0.22136435808230631</v>
+        <v>0.28304849675768667</v>
       </c>
       <c r="E51">
-        <v>0.20203879496441721</v>
+        <v>-8.5245501705076276E-2</v>
       </c>
       <c r="F51">
-        <v>3.9508743860735969</v>
+        <v>4.255265644728274</v>
       </c>
       <c r="G51">
-        <v>3.601211362130551</v>
+        <v>4.4067076337079198</v>
       </c>
       <c r="H51">
-        <v>3.7655493046088782</v>
+        <v>4.4039696319674579</v>
       </c>
       <c r="I51">
-        <v>3.6911346400630771</v>
+        <v>4.3248696087700846</v>
       </c>
       <c r="J51">
-        <v>8.3795901457922373</v>
+        <v>7.7175868929734346</v>
       </c>
       <c r="K51">
-        <v>7.93264953663728</v>
+        <v>7.6005721332154552</v>
       </c>
       <c r="L51">
-        <v>7.8761177610930986</v>
+        <v>8.243912845736741</v>
       </c>
       <c r="M51">
-        <v>7.7699794522464156</v>
+        <v>8.1721460660219876</v>
       </c>
       <c r="N51">
-        <v>12.09050539882158</v>
+        <v>11.99454418616935</v>
       </c>
       <c r="O51">
-        <v>11.82666236510282</v>
+        <v>11.58464033149947</v>
       </c>
       <c r="P51">
-        <v>12.04585192250526</v>
+        <v>12.332814173400459</v>
       </c>
       <c r="Q51">
-        <v>12.29864903668053</v>
+        <v>12.013677814534031</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -3142,52 +3059,52 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.12815642925503229</v>
+        <v>-0.31123536250675732</v>
       </c>
       <c r="C52">
-        <v>-0.49737329874488451</v>
+        <v>-0.16318103748377599</v>
       </c>
       <c r="D52">
-        <v>-0.31024696587377631</v>
+        <v>-0.1169321689209506</v>
       </c>
       <c r="E52">
-        <v>6.3336366369236563E-3</v>
+        <v>-0.20210519227604251</v>
       </c>
       <c r="F52">
-        <v>3.8998717284403459</v>
+        <v>4.1033998236045637</v>
       </c>
       <c r="G52">
-        <v>4.1866781971787663</v>
+        <v>3.7368553054311011</v>
       </c>
       <c r="H52">
-        <v>3.70486325447049</v>
+        <v>4.4332697826613972</v>
       </c>
       <c r="I52">
-        <v>3.7594893768518109</v>
+        <v>3.9713772098817959</v>
       </c>
       <c r="J52">
-        <v>8.0268373242097564</v>
+        <v>7.8095529897000233</v>
       </c>
       <c r="K52">
-        <v>7.9246271523406424</v>
+        <v>8.24603841542406</v>
       </c>
       <c r="L52">
-        <v>7.7873206466072649</v>
+        <v>8.4391300144616981</v>
       </c>
       <c r="M52">
-        <v>8.1771657345894013</v>
+        <v>7.5184282412728516</v>
       </c>
       <c r="N52">
-        <v>11.548216707511459</v>
+        <v>12.09674010963751</v>
       </c>
       <c r="O52">
-        <v>11.938700210824759</v>
+        <v>11.65113420848617</v>
       </c>
       <c r="P52">
-        <v>12.312607998615089</v>
+        <v>11.845156008005111</v>
       </c>
       <c r="Q52">
-        <v>12.404184995267199</v>
+        <v>11.710452471876261</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -3195,52 +3112,52 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.43307121637638463</v>
+        <v>-5.0480292371503199E-2</v>
       </c>
       <c r="C53">
-        <v>0.34073074144184989</v>
+        <v>0.32847665300729101</v>
       </c>
       <c r="D53">
-        <v>3.3421191646999297E-2</v>
+        <v>-0.2950186813596658</v>
       </c>
       <c r="E53">
-        <v>-2.097129529740804E-2</v>
+        <v>-0.45880090379157917</v>
       </c>
       <c r="F53">
-        <v>3.7112533793969051</v>
+        <v>3.757746508035805</v>
       </c>
       <c r="G53">
-        <v>4.3414614516714192</v>
+        <v>4.362661457124851</v>
       </c>
       <c r="H53">
-        <v>3.9917971894706961</v>
+        <v>4.4874423176104123</v>
       </c>
       <c r="I53">
-        <v>3.791167932560124</v>
+        <v>4.1568823082393651</v>
       </c>
       <c r="J53">
-        <v>8.4838918543673802</v>
+        <v>7.5544491484459924</v>
       </c>
       <c r="K53">
-        <v>8.0305237521346058</v>
+        <v>8.0914960932012008</v>
       </c>
       <c r="L53">
-        <v>7.6949878199493167</v>
+        <v>8.1192189783796298</v>
       </c>
       <c r="M53">
-        <v>8.0174945495068126</v>
+        <v>8.1075083591371975</v>
       </c>
       <c r="N53">
-        <v>12.24729712023513</v>
+        <v>12.028747701430531</v>
       </c>
       <c r="O53">
-        <v>12.187223943016789</v>
+        <v>12.1462259278579</v>
       </c>
       <c r="P53">
-        <v>12.204615871090949</v>
+        <v>12.32473921518957</v>
       </c>
       <c r="Q53">
-        <v>11.561043859511649</v>
+        <v>12.075600180223731</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -3248,52 +3165,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1119567900921405</v>
+        <v>0.31333775772412292</v>
       </c>
       <c r="C54">
-        <v>0.1002964738786862</v>
+        <v>0.1426566745759246</v>
       </c>
       <c r="D54">
-        <v>-0.22405759592079141</v>
+        <v>0.20417966410050081</v>
       </c>
       <c r="E54">
-        <v>6.9391516932736819E-2</v>
+        <v>-0.18284080450923121</v>
       </c>
       <c r="F54">
-        <v>3.6953816506446011</v>
+        <v>3.8108731877576538</v>
       </c>
       <c r="G54">
-        <v>3.7927024038321608</v>
+        <v>3.809664846695088</v>
       </c>
       <c r="H54">
-        <v>3.7040428404807351</v>
+        <v>4.2014382850468239</v>
       </c>
       <c r="I54">
-        <v>3.9415322178147898</v>
+        <v>4.3461253963463928</v>
       </c>
       <c r="J54">
-        <v>8.2678126192045802</v>
+        <v>8.0762206104736407</v>
       </c>
       <c r="K54">
-        <v>8.330564784284082</v>
+        <v>7.6298860593824802</v>
       </c>
       <c r="L54">
-        <v>8.1371980489186182</v>
+        <v>7.61176807178306</v>
       </c>
       <c r="M54">
-        <v>7.6842461204287584</v>
+        <v>8.1560631183270687</v>
       </c>
       <c r="N54">
-        <v>11.69782734477336</v>
+        <v>12.20000623345382</v>
       </c>
       <c r="O54">
-        <v>11.8639699045473</v>
+        <v>12.128588499103151</v>
       </c>
       <c r="P54">
-        <v>11.977889722034719</v>
+        <v>11.83574127978301</v>
       </c>
       <c r="Q54">
-        <v>12.145552420240779</v>
+        <v>12.491511830422439</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -3301,52 +3218,52 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.26299898217586221</v>
+        <v>-9.9307235304561314E-2</v>
       </c>
       <c r="C55">
-        <v>-0.27703885467912409</v>
+        <v>-6.6304743943141897E-3</v>
       </c>
       <c r="D55">
-        <v>0.48596838995301839</v>
+        <v>-0.39016211696180803</v>
       </c>
       <c r="E55">
-        <v>-0.37297304798196712</v>
+        <v>0.49314223739705532</v>
       </c>
       <c r="F55">
-        <v>4.0659489299055904</v>
+        <v>4.2807393204190891</v>
       </c>
       <c r="G55">
-        <v>4.2144703795788754</v>
+        <v>4.3045002220642603</v>
       </c>
       <c r="H55">
-        <v>3.8793505524650449</v>
+        <v>4.4016512916897144</v>
       </c>
       <c r="I55">
-        <v>3.5440901940551561</v>
+        <v>3.569489006332347</v>
       </c>
       <c r="J55">
-        <v>8.305498280095863</v>
+        <v>8.4304400230586563</v>
       </c>
       <c r="K55">
-        <v>7.8403562237211366</v>
+        <v>7.549409381436095</v>
       </c>
       <c r="L55">
-        <v>8.4604571252680163</v>
+        <v>7.8881691304056822</v>
       </c>
       <c r="M55">
-        <v>7.7501459326445437</v>
+        <v>7.5858968281405019</v>
       </c>
       <c r="N55">
-        <v>12.36289242381689</v>
+        <v>12.46087120549538</v>
       </c>
       <c r="O55">
-        <v>11.94992755771792</v>
+        <v>11.71614425572227</v>
       </c>
       <c r="P55">
-        <v>11.592901020315839</v>
+        <v>11.742542077534299</v>
       </c>
       <c r="Q55">
-        <v>11.75430201811524</v>
+        <v>12.193098420335881</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -3354,52 +3271,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.20796708696081789</v>
+        <v>-0.39117774088652052</v>
       </c>
       <c r="C56">
-        <v>-4.7938213647348071E-2</v>
+        <v>-0.25216515197617978</v>
       </c>
       <c r="D56">
-        <v>0.19388310258125471</v>
+        <v>-0.25990996250523662</v>
       </c>
       <c r="E56">
-        <v>-1.27730135510673E-3</v>
+        <v>0.21153434745074809</v>
       </c>
       <c r="F56">
-        <v>4.4941791716624344</v>
+        <v>3.5968686794823559</v>
       </c>
       <c r="G56">
-        <v>3.961731694965946</v>
+        <v>3.618969989920942</v>
       </c>
       <c r="H56">
-        <v>4.1447537735024076</v>
+        <v>4.0201604981354961</v>
       </c>
       <c r="I56">
-        <v>4.4187470197281522</v>
+        <v>4.0781786412493144</v>
       </c>
       <c r="J56">
-        <v>7.5613828319452274</v>
+        <v>7.9989848808602604</v>
       </c>
       <c r="K56">
-        <v>8.0020691368137644</v>
+        <v>7.9186978481595736</v>
       </c>
       <c r="L56">
-        <v>8.0970853920974815</v>
+        <v>8.1834345498210741</v>
       </c>
       <c r="M56">
-        <v>7.7854415024130388</v>
+        <v>7.7828568113018441</v>
       </c>
       <c r="N56">
-        <v>11.86184173368742</v>
+        <v>12.11465831223194</v>
       </c>
       <c r="O56">
-        <v>11.71574328399927</v>
+        <v>11.553972705661041</v>
       </c>
       <c r="P56">
-        <v>12.37949377148286</v>
+        <v>11.75872496642809</v>
       </c>
       <c r="Q56">
-        <v>11.976708469973291</v>
+        <v>11.93450491788175</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -3407,52 +3324,52 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.30130315151746151</v>
+        <v>-0.30775275228386673</v>
       </c>
       <c r="C57">
-        <v>-0.45815832916949722</v>
+        <v>-0.40757514706980608</v>
       </c>
       <c r="D57">
-        <v>-0.44951835907928539</v>
+        <v>-0.29647531318897652</v>
       </c>
       <c r="E57">
-        <v>-0.1473828233012007</v>
+        <v>0.1822405998251877</v>
       </c>
       <c r="F57">
-        <v>4.2623089740487439</v>
+        <v>3.8171977335251168</v>
       </c>
       <c r="G57">
-        <v>4.0847935221218297</v>
+        <v>3.7188512239411979</v>
       </c>
       <c r="H57">
-        <v>3.7834708570601219</v>
+        <v>3.995218707575114</v>
       </c>
       <c r="I57">
-        <v>3.7598138406597368</v>
+        <v>4.4874255617815422</v>
       </c>
       <c r="J57">
-        <v>7.9646760905469414</v>
+        <v>8.4963565392458431</v>
       </c>
       <c r="K57">
-        <v>7.6449831595238837</v>
+        <v>8.2595010831326583</v>
       </c>
       <c r="L57">
-        <v>8.4095089548071442</v>
+        <v>7.7561176415637521</v>
       </c>
       <c r="M57">
-        <v>8.4959554024571613</v>
+        <v>7.7897553556255419</v>
       </c>
       <c r="N57">
-        <v>12.43356690920127</v>
+        <v>11.580583321030129</v>
       </c>
       <c r="O57">
-        <v>11.88810148504604</v>
+        <v>12.030032250003019</v>
       </c>
       <c r="P57">
-        <v>11.77658193466163</v>
+        <v>12.437688270614981</v>
       </c>
       <c r="Q57">
-        <v>11.50594245125532</v>
+        <v>12.397519549529161</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -3460,52 +3377,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.40115999349753523</v>
+        <v>0.41935547393688311</v>
       </c>
       <c r="C58">
-        <v>-0.43121645946127463</v>
+        <v>-0.13668762573597751</v>
       </c>
       <c r="D58">
-        <v>-0.2423889173062487</v>
+        <v>0.11386172481578111</v>
       </c>
       <c r="E58">
-        <v>-0.4188549319458883</v>
+        <v>-0.34361237091282432</v>
       </c>
       <c r="F58">
-        <v>4.0550097191371339</v>
+        <v>3.9894514882653591</v>
       </c>
       <c r="G58">
-        <v>4.1854286177300892</v>
+        <v>4.0724696240955849</v>
       </c>
       <c r="H58">
-        <v>3.6671710706716629</v>
+        <v>4.4889212939508756</v>
       </c>
       <c r="I58">
-        <v>4.2454004269143741</v>
+        <v>3.7150655910752048</v>
       </c>
       <c r="J58">
-        <v>7.575485624445256</v>
+        <v>7.5487471523064853</v>
       </c>
       <c r="K58">
-        <v>7.9556377824273561</v>
+        <v>8.1694236685531152</v>
       </c>
       <c r="L58">
-        <v>7.5779778590127824</v>
+        <v>7.9024533981066867</v>
       </c>
       <c r="M58">
-        <v>8.1104693019611194</v>
+        <v>7.7542590560736961</v>
       </c>
       <c r="N58">
-        <v>12.1236789503638</v>
+        <v>11.52046634802746</v>
       </c>
       <c r="O58">
-        <v>11.59410545273702</v>
+        <v>11.80305131041368</v>
       </c>
       <c r="P58">
-        <v>11.64630951660013</v>
+        <v>12.23826336507992</v>
       </c>
       <c r="Q58">
-        <v>11.990847042804299</v>
+        <v>11.736298794442339</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -3513,52 +3430,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.47133424547697272</v>
+        <v>-0.14113319198013499</v>
       </c>
       <c r="C59">
-        <v>0.32017096294629371</v>
+        <v>0.1926672288698742</v>
       </c>
       <c r="D59">
-        <v>8.2038768071256429E-2</v>
+        <v>-0.47434153854005939</v>
       </c>
       <c r="E59">
-        <v>-0.27770430473811197</v>
+        <v>-0.32512079565418878</v>
       </c>
       <c r="F59">
-        <v>4.4164095044550544</v>
+        <v>3.702223099909284</v>
       </c>
       <c r="G59">
-        <v>3.799845314179966</v>
+        <v>3.5013987756871869</v>
       </c>
       <c r="H59">
-        <v>3.9496311072058101</v>
+        <v>4.1034944913719631</v>
       </c>
       <c r="I59">
-        <v>4.4396818077087419</v>
+        <v>3.8483138032386952</v>
       </c>
       <c r="J59">
-        <v>7.5981109700756226</v>
+        <v>7.8348104825911378</v>
       </c>
       <c r="K59">
-        <v>7.7048073951444742</v>
+        <v>7.6327208131647826</v>
       </c>
       <c r="L59">
-        <v>7.8425882798900277</v>
+        <v>7.5637904615328049</v>
       </c>
       <c r="M59">
-        <v>8.4122540794558667</v>
+        <v>7.8311722638432633</v>
       </c>
       <c r="N59">
-        <v>12.03926834333371</v>
+        <v>11.802340976342711</v>
       </c>
       <c r="O59">
-        <v>12.110519796055639</v>
+        <v>12.387048213653021</v>
       </c>
       <c r="P59">
-        <v>12.37865128378845</v>
+        <v>11.73489804390185</v>
       </c>
       <c r="Q59">
-        <v>12.259993159122169</v>
+        <v>12.48390027277323</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -3566,52 +3483,52 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-8.1331817341339541E-2</v>
+        <v>-0.47942004062300159</v>
       </c>
       <c r="C60">
-        <v>0.115483123052685</v>
+        <v>0.24733707561196161</v>
       </c>
       <c r="D60">
-        <v>6.3672077436654373E-2</v>
+        <v>0.2050667564260282</v>
       </c>
       <c r="E60">
-        <v>4.8081039020396732E-3</v>
+        <v>-0.29405034774421912</v>
       </c>
       <c r="F60">
-        <v>3.8992130049406502</v>
+        <v>4.2494110063102752</v>
       </c>
       <c r="G60">
-        <v>4.1210999765862164</v>
+        <v>3.9478732881568628</v>
       </c>
       <c r="H60">
-        <v>3.8000060623390342</v>
+        <v>4.1220005945722793</v>
       </c>
       <c r="I60">
-        <v>3.6773875682784678</v>
+        <v>3.9746653393974851</v>
       </c>
       <c r="J60">
-        <v>8.4388924889617858</v>
+        <v>8.0383999045577621</v>
       </c>
       <c r="K60">
-        <v>7.6996705884941399</v>
+        <v>7.6686388159819696</v>
       </c>
       <c r="L60">
-        <v>7.5468817558467123</v>
+        <v>7.5413934411670533</v>
       </c>
       <c r="M60">
-        <v>8.0240539577510486</v>
+        <v>7.5243824906222763</v>
       </c>
       <c r="N60">
-        <v>12.324289580139011</v>
+        <v>11.81986751679735</v>
       </c>
       <c r="O60">
-        <v>11.858183314157831</v>
+        <v>12.01729421702569</v>
       </c>
       <c r="P60">
-        <v>11.50049743070166</v>
+        <v>11.57637222980417</v>
       </c>
       <c r="Q60">
-        <v>11.58661470378382</v>
+        <v>11.71753371552661</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -3619,52 +3536,52 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.6109881995925277E-2</v>
+        <v>-0.1566211074221224</v>
       </c>
       <c r="C61">
-        <v>0.28751023815097793</v>
+        <v>-0.1521586331392536</v>
       </c>
       <c r="D61">
-        <v>0.1060066501352102</v>
+        <v>0.49824850012843758</v>
       </c>
       <c r="E61">
-        <v>0.37815121969258719</v>
+        <v>-5.6072130013471999E-2</v>
       </c>
       <c r="F61">
-        <v>3.9829780297190989</v>
+        <v>4.3852503807450178</v>
       </c>
       <c r="G61">
-        <v>3.858443220782243</v>
+        <v>3.6178096514425939</v>
       </c>
       <c r="H61">
-        <v>3.5124980798881191</v>
+        <v>3.9762510367294319</v>
       </c>
       <c r="I61">
-        <v>3.536210189275844</v>
+        <v>4.3088238633244824</v>
       </c>
       <c r="J61">
-        <v>7.5202097969162249</v>
+        <v>7.6253599954969076</v>
       </c>
       <c r="K61">
-        <v>8.0836938927338338</v>
+        <v>7.9907286696478943</v>
       </c>
       <c r="L61">
-        <v>7.5679432743935457</v>
+        <v>7.8511356187436778</v>
       </c>
       <c r="M61">
-        <v>7.7342487540939651</v>
+        <v>8.4037861250845189</v>
       </c>
       <c r="N61">
-        <v>12.179277930508791</v>
+        <v>11.64795969071808</v>
       </c>
       <c r="O61">
-        <v>11.958092047522911</v>
+        <v>11.92480367568475</v>
       </c>
       <c r="P61">
-        <v>11.78729922343963</v>
+        <v>12.30091370786749</v>
       </c>
       <c r="Q61">
-        <v>11.91773331828762</v>
+        <v>11.91694876383043</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -3672,52 +3589,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.33234535583704139</v>
+        <v>3.4755474324309032E-2</v>
       </c>
       <c r="C62">
-        <v>-0.33341192860654478</v>
+        <v>0.13997687130292649</v>
       </c>
       <c r="D62">
-        <v>-0.2105163431045157</v>
+        <v>0.38558739308182338</v>
       </c>
       <c r="E62">
-        <v>0.36581714070750071</v>
+        <v>0.26532576923597079</v>
       </c>
       <c r="F62">
-        <v>4.4692431027644242</v>
+        <v>3.714066319092248</v>
       </c>
       <c r="G62">
-        <v>4.1382824706177006</v>
+        <v>3.6291988640999149</v>
       </c>
       <c r="H62">
-        <v>4.0522408149874307</v>
+        <v>4.3008278518978891</v>
       </c>
       <c r="I62">
-        <v>4.0642429913024403</v>
+        <v>3.644476128001489</v>
       </c>
       <c r="J62">
-        <v>8.4358094447469654</v>
+        <v>7.618522354533388</v>
       </c>
       <c r="K62">
-        <v>7.6018563259660041</v>
+        <v>7.5245043328531054</v>
       </c>
       <c r="L62">
-        <v>7.7499335035886183</v>
+        <v>8.0285871794732042</v>
       </c>
       <c r="M62">
-        <v>8.1629237096883571</v>
+        <v>7.9186474260437878</v>
       </c>
       <c r="N62">
-        <v>12.200962179363749</v>
+        <v>12.45485798482572</v>
       </c>
       <c r="O62">
-        <v>11.917878010901321</v>
+        <v>12.14056240854862</v>
       </c>
       <c r="P62">
-        <v>12.28790230106382</v>
+        <v>11.674420459334019</v>
       </c>
       <c r="Q62">
-        <v>11.719575145255691</v>
+        <v>12.345073031561689</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -3725,52 +3642,52 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.42126839289342832</v>
+        <v>-0.16028259763877001</v>
       </c>
       <c r="C63">
-        <v>0.48273106800271431</v>
+        <v>-0.1349842097399879</v>
       </c>
       <c r="D63">
-        <v>0.13274528231203811</v>
+        <v>0.48689103361308311</v>
       </c>
       <c r="E63">
-        <v>-0.11962673189795051</v>
+        <v>0.42674500929707321</v>
       </c>
       <c r="F63">
-        <v>3.9330665226436552</v>
+        <v>3.9072628467866539</v>
       </c>
       <c r="G63">
-        <v>3.9983190843500451</v>
+        <v>3.9037829595193161</v>
       </c>
       <c r="H63">
-        <v>4.2215660073151184</v>
+        <v>3.995171281427643</v>
       </c>
       <c r="I63">
-        <v>4.0503614392913594</v>
+        <v>4.2466257162579462</v>
       </c>
       <c r="J63">
-        <v>8.2285465424528681</v>
+        <v>7.5404739926305933</v>
       </c>
       <c r="K63">
-        <v>7.5489761117857599</v>
+        <v>7.6667935883564224</v>
       </c>
       <c r="L63">
-        <v>7.5512632525243788</v>
+        <v>8.3409612673141282</v>
       </c>
       <c r="M63">
-        <v>7.5088277721968417</v>
+        <v>7.6015727962228343</v>
       </c>
       <c r="N63">
-        <v>12.21283210706922</v>
+        <v>11.81712473073336</v>
       </c>
       <c r="O63">
-        <v>12.17896517436432</v>
+        <v>12.363637615437369</v>
       </c>
       <c r="P63">
-        <v>11.620785008658331</v>
+        <v>12.35141156254398</v>
       </c>
       <c r="Q63">
-        <v>11.689156421396669</v>
+        <v>11.99455494749108</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -3778,52 +3695,52 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-9.5106513104477375E-2</v>
+        <v>0.47915853389766849</v>
       </c>
       <c r="C64">
-        <v>0.24900906916751109</v>
+        <v>-1.830316138037746E-3</v>
       </c>
       <c r="D64">
-        <v>0.1321503927874782</v>
+        <v>-0.49503045936423351</v>
       </c>
       <c r="E64">
-        <v>7.8023742737526325E-2</v>
+        <v>0.17287102405047369</v>
       </c>
       <c r="F64">
-        <v>3.99787187188356</v>
+        <v>3.797776007728269</v>
       </c>
       <c r="G64">
-        <v>3.991720341655205</v>
+        <v>4.0816862238593004</v>
       </c>
       <c r="H64">
-        <v>4.0828964962301546</v>
+        <v>4.3563130220360398</v>
       </c>
       <c r="I64">
-        <v>4.3263616971491139</v>
+        <v>4.18474178089558</v>
       </c>
       <c r="J64">
-        <v>7.9617802052864999</v>
+        <v>7.5403772869661916</v>
       </c>
       <c r="K64">
-        <v>8.2814957081342264</v>
+        <v>8.2734738343553396</v>
       </c>
       <c r="L64">
-        <v>8.0290913076043733</v>
+        <v>8.3748270772447029</v>
       </c>
       <c r="M64">
-        <v>8.4237652334726558</v>
+        <v>7.5936643905793808</v>
       </c>
       <c r="N64">
-        <v>11.685243353426779</v>
+        <v>12.082992379113531</v>
       </c>
       <c r="O64">
-        <v>11.81667464596128</v>
+        <v>11.80666760389353</v>
       </c>
       <c r="P64">
-        <v>12.353905825660711</v>
+        <v>12.116125740683611</v>
       </c>
       <c r="Q64">
-        <v>12.047560331416641</v>
+        <v>11.848923024307791</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -3831,52 +3748,52 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.24149431680182681</v>
+        <v>-0.39833012887168662</v>
       </c>
       <c r="C65">
-        <v>-6.5599867730401384E-2</v>
+        <v>0.33252815179503181</v>
       </c>
       <c r="D65">
-        <v>0.48059563518061438</v>
+        <v>-0.38862889358754521</v>
       </c>
       <c r="E65">
-        <v>0.46547049102880139</v>
+        <v>0.20489385484811831</v>
       </c>
       <c r="F65">
-        <v>3.9655733831480462</v>
+        <v>4.4349052280798107</v>
       </c>
       <c r="G65">
-        <v>3.8105294617965719</v>
+        <v>3.9527978635639229</v>
       </c>
       <c r="H65">
-        <v>3.9510477767493861</v>
+        <v>3.818263924374349</v>
       </c>
       <c r="I65">
-        <v>4.4072032028666799</v>
+        <v>4.0899590630780258</v>
       </c>
       <c r="J65">
-        <v>8.3467313458365346</v>
+        <v>7.9282267710959502</v>
       </c>
       <c r="K65">
-        <v>8.0422142218175239</v>
+        <v>7.5085313502397586</v>
       </c>
       <c r="L65">
-        <v>8.053232927661643</v>
+        <v>7.5157996625288011</v>
       </c>
       <c r="M65">
-        <v>8.1271948942464984</v>
+        <v>8.243915005242922</v>
       </c>
       <c r="N65">
-        <v>12.377872679594519</v>
+        <v>12.326341232892499</v>
       </c>
       <c r="O65">
-        <v>12.31220719405967</v>
+        <v>12.286983627634619</v>
       </c>
       <c r="P65">
-        <v>11.589836408866701</v>
+        <v>11.86729077937553</v>
       </c>
       <c r="Q65">
-        <v>11.54243574735777</v>
+        <v>11.795657737017301</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -3884,52 +3801,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.40102292468592121</v>
+        <v>-0.33801186971337449</v>
       </c>
       <c r="C66">
-        <v>-0.14088287970527949</v>
+        <v>-0.42638421153795381</v>
       </c>
       <c r="D66">
-        <v>0.38695101090530609</v>
+        <v>0.26868190876959269</v>
       </c>
       <c r="E66">
-        <v>0.39965171479316652</v>
+        <v>-0.31221025065702701</v>
       </c>
       <c r="F66">
-        <v>3.709655748200285</v>
+        <v>4.3940091990483428</v>
       </c>
       <c r="G66">
-        <v>4.073186029348614</v>
+        <v>3.6873841092680522</v>
       </c>
       <c r="H66">
-        <v>4.4404440152645677</v>
+        <v>3.5158915183258328</v>
       </c>
       <c r="I66">
-        <v>4.0490410927091034</v>
+        <v>3.8969364655905672</v>
       </c>
       <c r="J66">
-        <v>8.4614826018695428</v>
+        <v>7.8726080535106044</v>
       </c>
       <c r="K66">
-        <v>7.7447995224650814</v>
+        <v>8.4781966969928924</v>
       </c>
       <c r="L66">
-        <v>8.0743623164493439</v>
+        <v>7.594106143228462</v>
       </c>
       <c r="M66">
-        <v>7.7573343988107064</v>
+        <v>7.6370218367573992</v>
       </c>
       <c r="N66">
-        <v>11.63265941965812</v>
+        <v>11.606003356241651</v>
       </c>
       <c r="O66">
-        <v>12.45810952120943</v>
+        <v>12.31751229796537</v>
       </c>
       <c r="P66">
-        <v>11.82397669068477</v>
+        <v>11.890436316364291</v>
       </c>
       <c r="Q66">
-        <v>12.391922956308919</v>
+        <v>12.46457331064479</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -3937,52 +3854,52 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.1576579515344857</v>
+        <v>-0.48718746794621171</v>
       </c>
       <c r="C67">
-        <v>-9.6234177303114898E-2</v>
+        <v>4.5069952285714088E-2</v>
       </c>
       <c r="D67">
-        <v>-0.25708603858147222</v>
+        <v>0.26127458668999892</v>
       </c>
       <c r="E67">
-        <v>-3.215117549233959E-2</v>
+        <v>8.5207533733607788E-3</v>
       </c>
       <c r="F67">
-        <v>3.5528657775625692</v>
+        <v>4.3977713808433272</v>
       </c>
       <c r="G67">
-        <v>4.1062518787739748</v>
+        <v>4.040984382811847</v>
       </c>
       <c r="H67">
-        <v>3.984183828570131</v>
+        <v>4.2872508742989233</v>
       </c>
       <c r="I67">
-        <v>3.720861248877553</v>
+        <v>3.6805136194476229</v>
       </c>
       <c r="J67">
-        <v>8.4700597762787524</v>
+        <v>7.8007143659887817</v>
       </c>
       <c r="K67">
-        <v>7.8897326498254348</v>
+        <v>8.4778187623483294</v>
       </c>
       <c r="L67">
-        <v>8.1277178860583543</v>
+        <v>8.3674092247513041</v>
       </c>
       <c r="M67">
-        <v>7.6128334025618187</v>
+        <v>7.7522678293703837</v>
       </c>
       <c r="N67">
-        <v>12.39986030541332</v>
+        <v>11.72591666603712</v>
       </c>
       <c r="O67">
-        <v>11.94098877667075</v>
+        <v>12.04384251743342</v>
       </c>
       <c r="P67">
-        <v>12.310423610596541</v>
+        <v>12.44676498561422</v>
       </c>
       <c r="Q67">
-        <v>12.482225394293531</v>
+        <v>11.507924869236129</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -3990,52 +3907,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.37158145170509999</v>
+        <v>-0.43978963358279438</v>
       </c>
       <c r="C68">
-        <v>0.40499350020583852</v>
+        <v>-0.12535526070038649</v>
       </c>
       <c r="D68">
-        <v>-6.6222622853197022E-2</v>
+        <v>-0.1430789573906156</v>
       </c>
       <c r="E68">
-        <v>-0.32537178306108677</v>
+        <v>5.2871921336154593E-2</v>
       </c>
       <c r="F68">
-        <v>3.550083188596004</v>
+        <v>4.039500625788099</v>
       </c>
       <c r="G68">
-        <v>4.1655085131352756</v>
+        <v>4.0005079393058374</v>
       </c>
       <c r="H68">
-        <v>3.7607649992345649</v>
+        <v>3.5237744874436978</v>
       </c>
       <c r="I68">
-        <v>4.1238914080236633</v>
+        <v>3.8839325882037952</v>
       </c>
       <c r="J68">
-        <v>7.7078155729652753</v>
+        <v>8.0970663937388299</v>
       </c>
       <c r="K68">
-        <v>7.7442144288955834</v>
+        <v>7.6267817680712486</v>
       </c>
       <c r="L68">
-        <v>7.7396149557126597</v>
+        <v>7.9293732326361432</v>
       </c>
       <c r="M68">
-        <v>8.3823962970412964</v>
+        <v>7.7567720176483324</v>
       </c>
       <c r="N68">
-        <v>11.90339830232217</v>
+        <v>12.05315374296414</v>
       </c>
       <c r="O68">
-        <v>12.323528381177571</v>
+        <v>11.56488226851895</v>
       </c>
       <c r="P68">
-        <v>11.875301217747349</v>
+        <v>12.431934140794681</v>
       </c>
       <c r="Q68">
-        <v>12.31606034428124</v>
+        <v>11.75291287143903</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -4043,52 +3960,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.11726663889289091</v>
+        <v>-0.27270142732724839</v>
       </c>
       <c r="C69">
-        <v>-0.16374089287832591</v>
+        <v>0.40487184873249332</v>
       </c>
       <c r="D69">
-        <v>0.189376451598357</v>
+        <v>0.42781020181509949</v>
       </c>
       <c r="E69">
-        <v>0.4187861902052985</v>
+        <v>-0.128350144930092</v>
       </c>
       <c r="F69">
-        <v>4.4183570917102593</v>
+        <v>3.742069217738472</v>
       </c>
       <c r="G69">
-        <v>4.2004192950504384</v>
+        <v>4.0512130039055121</v>
       </c>
       <c r="H69">
-        <v>4.1512360088852303</v>
+        <v>3.592063592811559</v>
       </c>
       <c r="I69">
-        <v>3.5549840896527658</v>
+        <v>3.9156380225310521</v>
       </c>
       <c r="J69">
-        <v>8.1063949078269673</v>
+        <v>8.2653784102155221</v>
       </c>
       <c r="K69">
-        <v>8.0039486984340531</v>
+        <v>7.762127886824933</v>
       </c>
       <c r="L69">
-        <v>8.4141571105736528</v>
+        <v>7.7840919240529463</v>
       </c>
       <c r="M69">
-        <v>7.7073447862693696</v>
+        <v>7.8925144456863663</v>
       </c>
       <c r="N69">
-        <v>11.839418361861171</v>
+        <v>12.03712210822124</v>
       </c>
       <c r="O69">
-        <v>12.207889922229841</v>
+        <v>11.530043696134049</v>
       </c>
       <c r="P69">
-        <v>11.88353293653595</v>
+        <v>11.77481491871858</v>
       </c>
       <c r="Q69">
-        <v>11.729945905601321</v>
+        <v>12.20246785407989</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -4096,52 +4013,52 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.12004943621606511</v>
+        <v>5.7341894083408167E-2</v>
       </c>
       <c r="C70">
-        <v>-0.26871997737518899</v>
+        <v>0.36348310566065878</v>
       </c>
       <c r="D70">
-        <v>2.186004333434266E-2</v>
+        <v>0.15800010081805371</v>
       </c>
       <c r="E70">
-        <v>-2.4493178509230611E-3</v>
+        <v>2.4724730637370351E-2</v>
       </c>
       <c r="F70">
-        <v>4.4905559859067754</v>
+        <v>4.2137375308965206</v>
       </c>
       <c r="G70">
-        <v>3.6805253187187681</v>
+        <v>4.233878159697376</v>
       </c>
       <c r="H70">
-        <v>4.3893126301397736</v>
+        <v>4.4309576018644057</v>
       </c>
       <c r="I70">
-        <v>4.1666645888370732</v>
+        <v>3.9262811949824128</v>
       </c>
       <c r="J70">
-        <v>8.2179275403444123</v>
+        <v>7.8412407286550234</v>
       </c>
       <c r="K70">
-        <v>7.964508573566432</v>
+        <v>7.824804643266031</v>
       </c>
       <c r="L70">
-        <v>7.6917809497473124</v>
+        <v>7.50144784297912</v>
       </c>
       <c r="M70">
-        <v>8.0096995277524599</v>
+        <v>8.4455715927709605</v>
       </c>
       <c r="N70">
-        <v>12.278983831834809</v>
+        <v>11.92647222349072</v>
       </c>
       <c r="O70">
-        <v>12.311544092987051</v>
+        <v>11.55427372024397</v>
       </c>
       <c r="P70">
-        <v>12.43853062039034</v>
+        <v>11.860301904361171</v>
       </c>
       <c r="Q70">
-        <v>11.529142365287051</v>
+        <v>11.79293934576747</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -4149,52 +4066,52 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.923361142730311E-2</v>
+        <v>-0.44470171579575052</v>
       </c>
       <c r="C71">
-        <v>0.36030353036650548</v>
+        <v>-0.27061105102007799</v>
       </c>
       <c r="D71">
-        <v>0.20784579028939251</v>
+        <v>-0.17049551050311779</v>
       </c>
       <c r="E71">
-        <v>0.34803355749152293</v>
+        <v>-0.12903263591362071</v>
       </c>
       <c r="F71">
-        <v>4.0983784318329182</v>
+        <v>4.3327317581606177</v>
       </c>
       <c r="G71">
-        <v>4.464435224271849</v>
+        <v>4.3942124731787571</v>
       </c>
       <c r="H71">
-        <v>3.9850833774108159</v>
+        <v>4.4042477486566156</v>
       </c>
       <c r="I71">
-        <v>3.5210406364941158</v>
+        <v>3.8792378577847511</v>
       </c>
       <c r="J71">
-        <v>8.4263494037466362</v>
+        <v>8.0240280771487846</v>
       </c>
       <c r="K71">
-        <v>7.5426519779799976</v>
+        <v>7.8130675917818273</v>
       </c>
       <c r="L71">
-        <v>7.941055970800976</v>
+        <v>7.5387940520710828</v>
       </c>
       <c r="M71">
-        <v>8.3618911075671232</v>
+        <v>7.6044776008363844</v>
       </c>
       <c r="N71">
-        <v>12.23507915863104</v>
+        <v>12.426906191748341</v>
       </c>
       <c r="O71">
-        <v>11.930551993474401</v>
+        <v>12.05564769716495</v>
       </c>
       <c r="P71">
-        <v>12.449579415566889</v>
+        <v>11.952838605453691</v>
       </c>
       <c r="Q71">
-        <v>12.294572296797879</v>
+        <v>11.8091848542586</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -4202,52 +4119,52 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.28755709576473543</v>
+        <v>-0.12619495218369481</v>
       </c>
       <c r="C72">
-        <v>-0.47689706011253302</v>
+        <v>0.19998420498469219</v>
       </c>
       <c r="D72">
-        <v>-0.44805720798515042</v>
+        <v>-0.15210613610943399</v>
       </c>
       <c r="E72">
-        <v>-0.15940881692962941</v>
+        <v>0.22736815599553811</v>
       </c>
       <c r="F72">
-        <v>4.3397884059846206</v>
+        <v>3.5074188370344079</v>
       </c>
       <c r="G72">
-        <v>3.5300696673244141</v>
+        <v>3.6915309488023031</v>
       </c>
       <c r="H72">
-        <v>4.3205817177692936</v>
+        <v>3.5568052895959998</v>
       </c>
       <c r="I72">
-        <v>3.944631338300252</v>
+        <v>3.630448557056571</v>
       </c>
       <c r="J72">
-        <v>7.8234994437889123</v>
+        <v>8.0229238837491117</v>
       </c>
       <c r="K72">
-        <v>7.828280851515145</v>
+        <v>7.8269982317905313</v>
       </c>
       <c r="L72">
-        <v>8.1974865875529215</v>
+        <v>8.3800142275523033</v>
       </c>
       <c r="M72">
-        <v>8.0326117252387181</v>
+        <v>7.7208144198893596</v>
       </c>
       <c r="N72">
-        <v>11.605434862553389</v>
+        <v>12.16466921218303</v>
       </c>
       <c r="O72">
-        <v>12.148060199919041</v>
+        <v>11.54551781811924</v>
       </c>
       <c r="P72">
-        <v>11.839039944888629</v>
+        <v>11.840142372590449</v>
       </c>
       <c r="Q72">
-        <v>11.953599379246871</v>
+        <v>12.154898422892879</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -4255,52 +4172,52 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.37578657269183718</v>
+        <v>0.1754135997440501</v>
       </c>
       <c r="C73">
-        <v>0.48925433640519272</v>
+        <v>0.45940794780397498</v>
       </c>
       <c r="D73">
-        <v>-0.38578198233873739</v>
+        <v>-0.42142527289183801</v>
       </c>
       <c r="E73">
-        <v>-3.1899116874861237E-2</v>
+        <v>0.38478984779642739</v>
       </c>
       <c r="F73">
-        <v>4.20336302251311</v>
+        <v>3.5036957826913731</v>
       </c>
       <c r="G73">
-        <v>3.523968874938793</v>
+        <v>3.86540121556488</v>
       </c>
       <c r="H73">
-        <v>4.2760336073025584</v>
+        <v>4.3866955648304389</v>
       </c>
       <c r="I73">
-        <v>3.6559381774572182</v>
+        <v>4.3487934830656192</v>
       </c>
       <c r="J73">
-        <v>8.069577852225299</v>
+        <v>7.6191537531968061</v>
       </c>
       <c r="K73">
-        <v>7.914822630255081</v>
+        <v>7.6688752398802897</v>
       </c>
       <c r="L73">
-        <v>8.4264335439218598</v>
+        <v>8.3573688303528364</v>
       </c>
       <c r="M73">
-        <v>8.2783325209626319</v>
+        <v>8.3699995103541145</v>
       </c>
       <c r="N73">
-        <v>11.73494683314191</v>
+        <v>12.31107385410572</v>
       </c>
       <c r="O73">
-        <v>11.877971171326021</v>
+        <v>11.8241673591709</v>
       </c>
       <c r="P73">
-        <v>12.376012056919199</v>
+        <v>12.27161417937285</v>
       </c>
       <c r="Q73">
-        <v>12.27767037877998</v>
+        <v>11.67891339162302</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -4308,52 +4225,52 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.41633360824790477</v>
+        <v>0.20379781312662401</v>
       </c>
       <c r="C74">
-        <v>0.39168771468151092</v>
+        <v>0.17523401871962771</v>
       </c>
       <c r="D74">
-        <v>6.2204102402083739E-2</v>
+        <v>0.43734819711461409</v>
       </c>
       <c r="E74">
-        <v>-9.7810947196051989E-3</v>
+        <v>0.16793113047604469</v>
       </c>
       <c r="F74">
-        <v>3.6643324594939992</v>
+        <v>4.1771437846971136</v>
       </c>
       <c r="G74">
-        <v>3.8035063510902929</v>
+        <v>3.6117587124641561</v>
       </c>
       <c r="H74">
-        <v>3.5879381928332941</v>
+        <v>3.543499050189995</v>
       </c>
       <c r="I74">
-        <v>4.0300290710891629</v>
+        <v>3.8056570001957621</v>
       </c>
       <c r="J74">
-        <v>7.7942649104568869</v>
+        <v>8.0877420226368493</v>
       </c>
       <c r="K74">
-        <v>8.4251542074958543</v>
+        <v>7.786942860492692</v>
       </c>
       <c r="L74">
-        <v>7.8942437732719339</v>
+        <v>8.1519840617823487</v>
       </c>
       <c r="M74">
-        <v>8.1110222633195583</v>
+        <v>7.6733195440926227</v>
       </c>
       <c r="N74">
-        <v>11.74867408831</v>
+        <v>12.179275996692249</v>
       </c>
       <c r="O74">
-        <v>12.23899151409911</v>
+        <v>11.71389638484705</v>
       </c>
       <c r="P74">
-        <v>12.38757414469684</v>
+        <v>12.15145800243722</v>
       </c>
       <c r="Q74">
-        <v>12.444966315211779</v>
+        <v>12.03490613763571</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -4361,52 +4278,52 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.48823021873297129</v>
+        <v>-0.40105957211795651</v>
       </c>
       <c r="C75">
-        <v>-0.44220979259870657</v>
+        <v>0.21045451802310031</v>
       </c>
       <c r="D75">
-        <v>-0.17959306861256169</v>
+        <v>-0.25469689119383238</v>
       </c>
       <c r="E75">
-        <v>-0.44557785497617258</v>
+        <v>-0.30279329733159982</v>
       </c>
       <c r="F75">
-        <v>4.4803129922390523</v>
+        <v>3.6469417154490258</v>
       </c>
       <c r="G75">
-        <v>3.7493905502846889</v>
+        <v>3.515947627864084</v>
       </c>
       <c r="H75">
-        <v>4.4034368108167907</v>
+        <v>3.7157163226116978</v>
       </c>
       <c r="I75">
-        <v>3.7388668456272081</v>
+        <v>4.1433490391094772</v>
       </c>
       <c r="J75">
-        <v>7.5627957973297457</v>
+        <v>7.9278026098365846</v>
       </c>
       <c r="K75">
-        <v>7.8512622108015977</v>
+        <v>7.6834369056329246</v>
       </c>
       <c r="L75">
-        <v>7.5305829759280547</v>
+        <v>7.6924195075562434</v>
       </c>
       <c r="M75">
-        <v>7.6756947917159248</v>
+        <v>8.2205582937069757</v>
       </c>
       <c r="N75">
-        <v>11.94301361194521</v>
+        <v>11.509768818335891</v>
       </c>
       <c r="O75">
-        <v>12.2671746676667</v>
+        <v>11.884455911401821</v>
       </c>
       <c r="P75">
-        <v>12.31151042767374</v>
+        <v>12.384285233619</v>
       </c>
       <c r="Q75">
-        <v>11.589044177284119</v>
+        <v>12.19820129570801</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -4414,52 +4331,52 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.21640855634714939</v>
+        <v>-0.38021468271026082</v>
       </c>
       <c r="C76">
-        <v>-0.45514929886594219</v>
+        <v>-6.1227375547339258E-2</v>
       </c>
       <c r="D76">
-        <v>0.35226511793788212</v>
+        <v>0.14569477283688911</v>
       </c>
       <c r="E76">
-        <v>-0.19097288484386851</v>
+        <v>0.47471922213895568</v>
       </c>
       <c r="F76">
-        <v>4.2023579946964267</v>
+        <v>4.1806307971253602</v>
       </c>
       <c r="G76">
-        <v>3.77223884035035</v>
+        <v>3.6520230384347352</v>
       </c>
       <c r="H76">
-        <v>3.924409114455035</v>
+        <v>4.4049102494287169</v>
       </c>
       <c r="I76">
-        <v>3.8426292586925328</v>
+        <v>4.2343196292854284</v>
       </c>
       <c r="J76">
-        <v>7.7441306460491406</v>
+        <v>8.378280291522703</v>
       </c>
       <c r="K76">
-        <v>8.2770655429227062</v>
+        <v>7.5701926492150546</v>
       </c>
       <c r="L76">
-        <v>8.1986446096796453</v>
+        <v>8.3369466071473823</v>
       </c>
       <c r="M76">
-        <v>8.3172870069365317</v>
+        <v>7.9385681724314328</v>
       </c>
       <c r="N76">
-        <v>11.809340996794081</v>
+        <v>12.449703592361571</v>
       </c>
       <c r="O76">
-        <v>12.18191794877116</v>
+        <v>12.357818141772981</v>
       </c>
       <c r="P76">
-        <v>11.68765701574957</v>
+        <v>12.09636031446237</v>
       </c>
       <c r="Q76">
-        <v>12.26687114430486</v>
+        <v>11.598911161247379</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -4467,52 +4384,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9.1107393116667712E-2</v>
+        <v>-0.40612658912855631</v>
       </c>
       <c r="C77">
-        <v>0.31205302696771431</v>
+        <v>-0.37270376298641861</v>
       </c>
       <c r="D77">
-        <v>0.45279174593077698</v>
+        <v>7.752111187476296E-2</v>
       </c>
       <c r="E77">
-        <v>-0.37164168968930339</v>
+        <v>-0.29781855272546948</v>
       </c>
       <c r="F77">
-        <v>3.8287504043775038</v>
+        <v>4.2883135099481393</v>
       </c>
       <c r="G77">
-        <v>4.0391666640195458</v>
+        <v>3.849654767628758</v>
       </c>
       <c r="H77">
-        <v>3.756414299164152</v>
+        <v>4.3166587610431026</v>
       </c>
       <c r="I77">
-        <v>3.5364020302525119</v>
+        <v>3.6360236868094469</v>
       </c>
       <c r="J77">
-        <v>8.4554627794549919</v>
+        <v>7.7642254175746954</v>
       </c>
       <c r="K77">
-        <v>7.8682570961122424</v>
+        <v>7.5977350137067088</v>
       </c>
       <c r="L77">
-        <v>7.5086395974487861</v>
+        <v>8.1386503445448639</v>
       </c>
       <c r="M77">
-        <v>8.2453001754204873</v>
+        <v>7.5967272737865272</v>
       </c>
       <c r="N77">
-        <v>11.96961141402962</v>
+        <v>12.248181921051859</v>
       </c>
       <c r="O77">
-        <v>12.42454242578571</v>
+        <v>11.887247434620191</v>
       </c>
       <c r="P77">
-        <v>11.84947526746171</v>
+        <v>11.57553356095014</v>
       </c>
       <c r="Q77">
-        <v>12.058929709953381</v>
+        <v>11.8111105008755</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -4520,52 +4437,52 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.21472546932240169</v>
+        <v>0.39773258905330772</v>
       </c>
       <c r="C78">
-        <v>-1.963968492830526E-2</v>
+        <v>0.48962901406108339</v>
       </c>
       <c r="D78">
-        <v>-4.1459063411747647E-2</v>
+        <v>-0.32397581803424502</v>
       </c>
       <c r="E78">
-        <v>9.7471832188955276E-2</v>
+        <v>-0.49897692198924698</v>
       </c>
       <c r="F78">
-        <v>4.4416108204291689</v>
+        <v>4.0263949327375732</v>
       </c>
       <c r="G78">
-        <v>4.0958225623519544</v>
+        <v>4.4895263579289812</v>
       </c>
       <c r="H78">
-        <v>4.3128392722902662</v>
+        <v>4.1946600793645112</v>
       </c>
       <c r="I78">
-        <v>4.3028864656304417</v>
+        <v>4.1490188017016232</v>
       </c>
       <c r="J78">
-        <v>7.877384764827398</v>
+        <v>7.520751181408043</v>
       </c>
       <c r="K78">
-        <v>7.9062497363963011</v>
+        <v>8.1627031061411248</v>
       </c>
       <c r="L78">
-        <v>7.6804365803110191</v>
+        <v>7.8144597425363456</v>
       </c>
       <c r="M78">
-        <v>8.3033924648264694</v>
+        <v>7.9347310410747012</v>
       </c>
       <c r="N78">
-        <v>11.91385660845552</v>
+        <v>11.92577421978927</v>
       </c>
       <c r="O78">
-        <v>11.87308992948835</v>
+        <v>11.923956963948971</v>
       </c>
       <c r="P78">
-        <v>12.453247030195239</v>
+        <v>12.320856548572349</v>
       </c>
       <c r="Q78">
-        <v>12.20769979565716</v>
+        <v>11.929481740527169</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -4573,52 +4490,52 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.28002802645703623</v>
+        <v>0.48581401256890572</v>
       </c>
       <c r="C79">
-        <v>-9.4886485488173467E-2</v>
+        <v>0.20740180395321769</v>
       </c>
       <c r="D79">
-        <v>0.24908997655545831</v>
+        <v>8.80393415359223E-2</v>
       </c>
       <c r="E79">
-        <v>9.8223276721717823E-2</v>
+        <v>-0.49790673229467941</v>
       </c>
       <c r="F79">
-        <v>3.660739809015142</v>
+        <v>4.0555703297108172</v>
       </c>
       <c r="G79">
-        <v>4.4142289969149466</v>
+        <v>4.4990825630722746</v>
       </c>
       <c r="H79">
-        <v>4.1400330520659976</v>
+        <v>4.1239333319898606</v>
       </c>
       <c r="I79">
-        <v>3.6796163268309439</v>
+        <v>3.8533958314329779</v>
       </c>
       <c r="J79">
-        <v>8.1740162703928121</v>
+        <v>8.0856691046462235</v>
       </c>
       <c r="K79">
-        <v>8.1271212432117839</v>
+        <v>8.4162628330324978</v>
       </c>
       <c r="L79">
-        <v>7.8037959776901804</v>
+        <v>8.4362038210652681</v>
       </c>
       <c r="M79">
-        <v>7.5719913145163211</v>
+        <v>7.7910586118516738</v>
       </c>
       <c r="N79">
-        <v>12.439150708499611</v>
+        <v>12.097186607077489</v>
       </c>
       <c r="O79">
-        <v>12.34601747257612</v>
+        <v>11.521449366651989</v>
       </c>
       <c r="P79">
-        <v>11.66222179782755</v>
+        <v>11.510490074593781</v>
       </c>
       <c r="Q79">
-        <v>12.32263630487641</v>
+        <v>11.900769638101711</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -4626,52 +4543,52 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.4067000083540817E-3</v>
+        <v>8.1418374013727535E-2</v>
       </c>
       <c r="C80">
-        <v>6.7629370359123531E-2</v>
+        <v>-0.26055761475722228</v>
       </c>
       <c r="D80">
-        <v>-0.32947796534524121</v>
+        <v>-0.29002377223865788</v>
       </c>
       <c r="E80">
-        <v>-0.4786273846120157</v>
+        <v>0.49894463911654913</v>
       </c>
       <c r="F80">
-        <v>4.490133350200515</v>
+        <v>4.3240648666830399</v>
       </c>
       <c r="G80">
-        <v>3.6754497743244179</v>
+        <v>3.7826065912877991</v>
       </c>
       <c r="H80">
-        <v>4.2014950923127721</v>
+        <v>3.697431393136799</v>
       </c>
       <c r="I80">
-        <v>4.3061373571265591</v>
+        <v>3.6103185406341129</v>
       </c>
       <c r="J80">
-        <v>7.5652217678290672</v>
+        <v>7.8184584728644149</v>
       </c>
       <c r="K80">
-        <v>8.2537891847290776</v>
+        <v>7.6116191770604624</v>
       </c>
       <c r="L80">
-        <v>8.2869887304921903</v>
+        <v>7.9068872676172592</v>
       </c>
       <c r="M80">
-        <v>7.5298602785330058</v>
+        <v>7.6423838849131442</v>
       </c>
       <c r="N80">
-        <v>11.74151584634304</v>
+        <v>12.04226182167584</v>
       </c>
       <c r="O80">
-        <v>12.21300670123053</v>
+        <v>12.07580275787409</v>
       </c>
       <c r="P80">
-        <v>12.02985140086334</v>
+        <v>11.57728278840662</v>
       </c>
       <c r="Q80">
-        <v>12.36584553870706</v>
+        <v>12.394951605322831</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -4679,52 +4596,52 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.3470444602103937</v>
+        <v>0.32912752385593153</v>
       </c>
       <c r="C81">
-        <v>-0.1095794448661077</v>
+        <v>0.35315559337549712</v>
       </c>
       <c r="D81">
-        <v>0.45098639061937579</v>
+        <v>0.25826421993311333</v>
       </c>
       <c r="E81">
-        <v>0.40926132379023772</v>
+        <v>-0.26116907831534242</v>
       </c>
       <c r="F81">
-        <v>4.3667085823127776</v>
+        <v>3.5263613349280938</v>
       </c>
       <c r="G81">
-        <v>3.7047770893375831</v>
+        <v>3.968833983344576</v>
       </c>
       <c r="H81">
-        <v>3.5839976249535672</v>
+        <v>3.7631671368405399</v>
       </c>
       <c r="I81">
-        <v>3.856328269901891</v>
+        <v>3.5078222546941711</v>
       </c>
       <c r="J81">
-        <v>8.4511172266593437</v>
+        <v>7.6897312960541671</v>
       </c>
       <c r="K81">
-        <v>8.0138598858663297</v>
+        <v>8.2372467084013703</v>
       </c>
       <c r="L81">
-        <v>7.9904485137659762</v>
+        <v>7.8541716606771379</v>
       </c>
       <c r="M81">
-        <v>8.400218044458807</v>
+        <v>7.5191103160031227</v>
       </c>
       <c r="N81">
-        <v>12.28352931362242</v>
+        <v>11.9355404124989</v>
       </c>
       <c r="O81">
-        <v>11.586145934807419</v>
+        <v>11.789940189923939</v>
       </c>
       <c r="P81">
-        <v>12.280842974606269</v>
+        <v>12.3920363794381</v>
       </c>
       <c r="Q81">
-        <v>11.9041739881808</v>
+        <v>11.8774321296052</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -4732,52 +4649,52 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.1165238396479565</v>
+        <v>-0.27684433975565531</v>
       </c>
       <c r="C82">
-        <v>0.32728511505550328</v>
+        <v>-0.2119562103421527</v>
       </c>
       <c r="D82">
-        <v>4.1381750300671261E-2</v>
+        <v>-0.1884483715956522</v>
       </c>
       <c r="E82">
-        <v>-0.34627049595011578</v>
+        <v>-0.49851457083606948</v>
       </c>
       <c r="F82">
-        <v>3.6005868036645059</v>
+        <v>3.74084071318407</v>
       </c>
       <c r="G82">
-        <v>4.1594421830082027</v>
+        <v>4.4336773988694826</v>
       </c>
       <c r="H82">
-        <v>3.6106907906386949</v>
+        <v>3.9115286902416089</v>
       </c>
       <c r="I82">
-        <v>4.1912726251769863</v>
+        <v>3.753719006688065</v>
       </c>
       <c r="J82">
-        <v>8.4208220098149678</v>
+        <v>8.384852783517319</v>
       </c>
       <c r="K82">
-        <v>7.7697288301976029</v>
+        <v>8.2351806582165406</v>
       </c>
       <c r="L82">
-        <v>8.2055660269007582</v>
+        <v>8.419809315170161</v>
       </c>
       <c r="M82">
-        <v>8.4015402693247516</v>
+        <v>7.8841327432838222</v>
       </c>
       <c r="N82">
-        <v>11.98679051744857</v>
+        <v>11.74110496037096</v>
       </c>
       <c r="O82">
-        <v>11.573370004724721</v>
+        <v>11.52086220457023</v>
       </c>
       <c r="P82">
-        <v>12.261441890905999</v>
+        <v>12.340432904159981</v>
       </c>
       <c r="Q82">
-        <v>12.326563825380561</v>
+        <v>11.99482225137058</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -4785,52 +4702,52 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-3.8321979161249242E-2</v>
+        <v>0.19517374282674321</v>
       </c>
       <c r="C83">
-        <v>0.4579931695748285</v>
+        <v>0.33824678448654377</v>
       </c>
       <c r="D83">
-        <v>-0.36531302226471479</v>
+        <v>-0.31270188771880841</v>
       </c>
       <c r="E83">
-        <v>0.178355666882969</v>
+        <v>-0.16234112875227169</v>
       </c>
       <c r="F83">
-        <v>3.6966735791750782</v>
+        <v>3.8698365825697261</v>
       </c>
       <c r="G83">
-        <v>3.9578765011082502</v>
+        <v>3.9711441741977889</v>
       </c>
       <c r="H83">
-        <v>3.7643969502599322</v>
+        <v>4.3392734649050633</v>
       </c>
       <c r="I83">
-        <v>3.767409846128277</v>
+        <v>4.1156325869749049</v>
       </c>
       <c r="J83">
-        <v>8.1558385278245638</v>
+        <v>7.5901625611847043</v>
       </c>
       <c r="K83">
-        <v>7.8449072311738028</v>
+        <v>8.1004920577030202</v>
       </c>
       <c r="L83">
-        <v>8.4656902349001939</v>
+        <v>8.2899642595947043</v>
       </c>
       <c r="M83">
-        <v>8.0133066640675583</v>
+        <v>7.9589496086248666</v>
       </c>
       <c r="N83">
-        <v>12.34554630488309</v>
+        <v>11.533453711451751</v>
       </c>
       <c r="O83">
-        <v>12.06172372976078</v>
+        <v>12.359417776488691</v>
       </c>
       <c r="P83">
-        <v>11.771282200886819</v>
+        <v>12.019254540796711</v>
       </c>
       <c r="Q83">
-        <v>11.74384377051696</v>
+        <v>12.07761267100129</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -4838,52 +4755,52 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.39540875586855961</v>
+        <v>0.26382695661157418</v>
       </c>
       <c r="C84">
-        <v>0.27817193212062019</v>
+        <v>-0.49261598867692907</v>
       </c>
       <c r="D84">
-        <v>-0.20395230688379221</v>
+        <v>-2.0574218895628941E-2</v>
       </c>
       <c r="E84">
-        <v>-0.1127765208605896</v>
+        <v>-0.2920846416680466</v>
       </c>
       <c r="F84">
-        <v>3.9955745419084892</v>
+        <v>3.5258436657197572</v>
       </c>
       <c r="G84">
-        <v>4.3469521358234182</v>
+        <v>3.9356292759741009</v>
       </c>
       <c r="H84">
-        <v>3.899831240671265</v>
+        <v>4.294534751467058</v>
       </c>
       <c r="I84">
-        <v>4.3680340436905691</v>
+        <v>4.477632942760958</v>
       </c>
       <c r="J84">
-        <v>7.8650658157421827</v>
+        <v>7.6139227172594932</v>
       </c>
       <c r="K84">
-        <v>7.6614471689679524</v>
+        <v>8.2204512679958626</v>
       </c>
       <c r="L84">
-        <v>7.5239532586266131</v>
+        <v>7.6205944125561311</v>
       </c>
       <c r="M84">
-        <v>7.5958041368915268</v>
+        <v>8.2612189722834639</v>
       </c>
       <c r="N84">
-        <v>11.82162428442045</v>
+        <v>12.351547773107381</v>
       </c>
       <c r="O84">
-        <v>11.81033838053613</v>
+        <v>11.848397588093141</v>
       </c>
       <c r="P84">
-        <v>11.69198098887739</v>
+        <v>12.279488789571939</v>
       </c>
       <c r="Q84">
-        <v>12.12788030648939</v>
+        <v>11.898783674806721</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -4891,52 +4808,52 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.13990671707396921</v>
+        <v>-0.37001431019003272</v>
       </c>
       <c r="C85">
-        <v>-0.29786253574573252</v>
+        <v>-9.5665390519992233E-2</v>
       </c>
       <c r="D85">
-        <v>0.10516423014841619</v>
+        <v>-0.40336177967139297</v>
       </c>
       <c r="E85">
-        <v>-0.43404053153412758</v>
+        <v>0.37747011093080479</v>
       </c>
       <c r="F85">
-        <v>3.9296080705031029</v>
+        <v>4.4798806752096496</v>
       </c>
       <c r="G85">
-        <v>4.3687967051806194</v>
+        <v>4.2963430920784447</v>
       </c>
       <c r="H85">
-        <v>3.6157269265567979</v>
+        <v>3.7862496673732209</v>
       </c>
       <c r="I85">
-        <v>3.8970401433974442</v>
+        <v>4.2178209142112451</v>
       </c>
       <c r="J85">
-        <v>7.5418052109254523</v>
+        <v>7.5571640323364084</v>
       </c>
       <c r="K85">
-        <v>7.899881200483537</v>
+        <v>8.3809644577533184</v>
       </c>
       <c r="L85">
-        <v>8.4232696503956994</v>
+        <v>7.6316573156990284</v>
       </c>
       <c r="M85">
-        <v>8.4731628260818024</v>
+        <v>8.0738549139300382</v>
       </c>
       <c r="N85">
-        <v>11.808744838642539</v>
+        <v>11.838439987147799</v>
       </c>
       <c r="O85">
-        <v>11.63650464078605</v>
+        <v>12.12097381517968</v>
       </c>
       <c r="P85">
-        <v>12.20967809115084</v>
+        <v>11.673685522288491</v>
       </c>
       <c r="Q85">
-        <v>11.846456208258649</v>
+        <v>11.53806878256545</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -4944,52 +4861,52 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.49957032275514968</v>
+        <v>-4.5175263589419257E-2</v>
       </c>
       <c r="C86">
-        <v>2.0174058275022499E-2</v>
+        <v>0.31579270640571477</v>
       </c>
       <c r="D86">
-        <v>0.34275691272228948</v>
+        <v>-0.1029571372055557</v>
       </c>
       <c r="E86">
-        <v>-9.9446863828486221E-3</v>
+        <v>0.35995105503965291</v>
       </c>
       <c r="F86">
-        <v>4.0379759853916388</v>
+        <v>4.4899008956438307</v>
       </c>
       <c r="G86">
-        <v>3.5903510476821481</v>
+        <v>4.045751774020502</v>
       </c>
       <c r="H86">
-        <v>3.839376726287675</v>
+        <v>3.7662447903516738</v>
       </c>
       <c r="I86">
-        <v>3.5083822680149779</v>
+        <v>4.1660733893555717</v>
       </c>
       <c r="J86">
-        <v>8.1059709474449821</v>
+        <v>7.7774103232107654</v>
       </c>
       <c r="K86">
-        <v>8.178912540284772</v>
+        <v>7.5952665406451061</v>
       </c>
       <c r="L86">
-        <v>8.3581266319299328</v>
+        <v>8.1121486782516872</v>
       </c>
       <c r="M86">
-        <v>7.6184721005653318</v>
+        <v>7.952494786895743</v>
       </c>
       <c r="N86">
-        <v>12.267776651509481</v>
+        <v>12.27219478150489</v>
       </c>
       <c r="O86">
-        <v>11.83566800210337</v>
+        <v>11.814893175341149</v>
       </c>
       <c r="P86">
-        <v>12.133304549890241</v>
+        <v>11.784327027438559</v>
       </c>
       <c r="Q86">
-        <v>12.198206613790139</v>
+        <v>12.04329548797223</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -4997,52 +4914,52 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8.0796741570663078E-2</v>
+        <v>-8.3940107909923345E-2</v>
       </c>
       <c r="C87">
-        <v>0.1241797816593402</v>
+        <v>-0.44654927633363101</v>
       </c>
       <c r="D87">
-        <v>-7.2750026476144591E-2</v>
+        <v>-0.27985373354886978</v>
       </c>
       <c r="E87">
-        <v>-0.23923611921911361</v>
+        <v>8.1067537523086042E-2</v>
       </c>
       <c r="F87">
-        <v>3.8289836616437838</v>
+        <v>4.3353319621695219</v>
       </c>
       <c r="G87">
-        <v>3.5089320238426969</v>
+        <v>4.0167825863051849</v>
       </c>
       <c r="H87">
-        <v>3.7285194493509399</v>
+        <v>4.1956968188952537</v>
       </c>
       <c r="I87">
-        <v>3.7698504578121841</v>
+        <v>4.4536807973023969</v>
       </c>
       <c r="J87">
-        <v>8.4194160730292076</v>
+        <v>7.8825559569288162</v>
       </c>
       <c r="K87">
-        <v>8.0516552146015048</v>
+        <v>8.4917056741075641</v>
       </c>
       <c r="L87">
-        <v>8.1663614558553892</v>
+        <v>7.7082924086314097</v>
       </c>
       <c r="M87">
-        <v>8.2651599340527362</v>
+        <v>7.5753190023087358</v>
       </c>
       <c r="N87">
-        <v>11.683284230044849</v>
+        <v>11.73379254869297</v>
       </c>
       <c r="O87">
-        <v>12.246064022573639</v>
+        <v>11.893728426097431</v>
       </c>
       <c r="P87">
-        <v>12.3577443729215</v>
+        <v>11.861679130641869</v>
       </c>
       <c r="Q87">
-        <v>12.283185655177901</v>
+        <v>12.120606775860679</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -5050,52 +4967,52 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.47421448361524721</v>
+        <v>-0.41036028524072399</v>
       </c>
       <c r="C88">
-        <v>0.20530918305096091</v>
+        <v>0.47862634868453502</v>
       </c>
       <c r="D88">
-        <v>-5.6810803613815519E-2</v>
+        <v>0.22024229898619199</v>
       </c>
       <c r="E88">
-        <v>1.69697687113749E-2</v>
+        <v>0.45736372859968849</v>
       </c>
       <c r="F88">
-        <v>3.8703271218262869</v>
+        <v>3.8206056796841938</v>
       </c>
       <c r="G88">
-        <v>4.4896999908818653</v>
+        <v>3.8571964095102329</v>
       </c>
       <c r="H88">
-        <v>4.1943169612527074</v>
+        <v>3.9882772774303952</v>
       </c>
       <c r="I88">
-        <v>4.2841901330375753</v>
+        <v>4.057915164648275</v>
       </c>
       <c r="J88">
-        <v>8.4764272421257125</v>
+        <v>7.8742065696833601</v>
       </c>
       <c r="K88">
-        <v>7.9829280567202856</v>
+        <v>7.6121484115098603</v>
       </c>
       <c r="L88">
-        <v>7.6702220351996706</v>
+        <v>8.0016325271766338</v>
       </c>
       <c r="M88">
-        <v>7.6349531507606656</v>
+        <v>7.9464694813004746</v>
       </c>
       <c r="N88">
-        <v>12.40881742156111</v>
+        <v>12.41392413992515</v>
       </c>
       <c r="O88">
-        <v>12.107261107558889</v>
+        <v>12.20100037745437</v>
       </c>
       <c r="P88">
-        <v>12.31365227153572</v>
+        <v>12.183076829404991</v>
       </c>
       <c r="Q88">
-        <v>12.202207469091841</v>
+        <v>12.367906103290711</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -5103,52 +5020,52 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.24171406684243099</v>
+        <v>0.3503210702562144</v>
       </c>
       <c r="C89">
-        <v>0.49799849880720548</v>
+        <v>0.1086937659510976</v>
       </c>
       <c r="D89">
-        <v>-0.42259602830317339</v>
+        <v>0.42343673232082779</v>
       </c>
       <c r="E89">
-        <v>0.17517200099139271</v>
+        <v>0.41269182365460461</v>
       </c>
       <c r="F89">
-        <v>3.9258238932959042</v>
+        <v>3.6418520965073991</v>
       </c>
       <c r="G89">
-        <v>3.5931389950428532</v>
+        <v>3.5317452944952632</v>
       </c>
       <c r="H89">
-        <v>3.7586394113291028</v>
+        <v>3.7705739715573219</v>
       </c>
       <c r="I89">
-        <v>3.8248139499191098</v>
+        <v>3.8700869614028961</v>
       </c>
       <c r="J89">
-        <v>8.2351391986634397</v>
+        <v>8.2022870305077493</v>
       </c>
       <c r="K89">
-        <v>8.203761565368545</v>
+        <v>8.4394929886960455</v>
       </c>
       <c r="L89">
-        <v>8.3754071889428481</v>
+        <v>8.299215795555078</v>
       </c>
       <c r="M89">
-        <v>7.5441551261473796</v>
+        <v>8.3514939785416189</v>
       </c>
       <c r="N89">
-        <v>12.120106600984339</v>
+        <v>11.870444966671689</v>
       </c>
       <c r="O89">
-        <v>12.38823143192392</v>
+        <v>11.55878874397956</v>
       </c>
       <c r="P89">
-        <v>11.57300155560257</v>
+        <v>12.219015403779739</v>
       </c>
       <c r="Q89">
-        <v>12.477004294793881</v>
+        <v>11.77827966738478</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -5156,52 +5073,52 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4465478644269224</v>
+        <v>0.22963148332599759</v>
       </c>
       <c r="C90">
-        <v>0.3250712960987332</v>
+        <v>0.18502863983523821</v>
       </c>
       <c r="D90">
-        <v>-0.30261378203922018</v>
+        <v>-0.2225032071843106</v>
       </c>
       <c r="E90">
-        <v>-0.14405472187050519</v>
+        <v>0.44959242616083678</v>
       </c>
       <c r="F90">
-        <v>4.4978626485128128</v>
+        <v>3.8036579929924961</v>
       </c>
       <c r="G90">
-        <v>4.4107309853902539</v>
+        <v>3.8489919608569578</v>
       </c>
       <c r="H90">
-        <v>4.3076079461548487</v>
+        <v>3.670454069023644</v>
       </c>
       <c r="I90">
-        <v>4.094942188280922</v>
+        <v>4.147520325445667</v>
       </c>
       <c r="J90">
-        <v>8.1306079290438742</v>
+        <v>7.7525604106944837</v>
       </c>
       <c r="K90">
-        <v>7.8103208529597339</v>
+        <v>8.3719893348433381</v>
       </c>
       <c r="L90">
-        <v>7.9281711623141087</v>
+        <v>8.2284611137170884</v>
       </c>
       <c r="M90">
-        <v>7.7867929136673624</v>
+        <v>7.6655398811460476</v>
       </c>
       <c r="N90">
-        <v>11.80078979293652</v>
+        <v>12.29701583822494</v>
       </c>
       <c r="O90">
-        <v>12.257512019394809</v>
+        <v>12.436345683567771</v>
       </c>
       <c r="P90">
-        <v>11.77529578947593</v>
+        <v>11.804224351019821</v>
       </c>
       <c r="Q90">
-        <v>12.28258312978069</v>
+        <v>12.020927052865311</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -5209,52 +5126,52 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.13231405346214151</v>
+        <v>0.4634454964299205</v>
       </c>
       <c r="C91">
-        <v>-0.2243283366260547</v>
+        <v>0.40642184321257302</v>
       </c>
       <c r="D91">
-        <v>0.27108172207536008</v>
+        <v>-0.44627912314350371</v>
       </c>
       <c r="E91">
-        <v>-0.49618748807590279</v>
+        <v>-0.35304006708402952</v>
       </c>
       <c r="F91">
-        <v>4.1947441319135086</v>
+        <v>3.8492524762301472</v>
       </c>
       <c r="G91">
-        <v>4.2040504003361878</v>
+        <v>3.7990587109860541</v>
       </c>
       <c r="H91">
-        <v>4.0577543037469423</v>
+        <v>4.1463881923898844</v>
       </c>
       <c r="I91">
-        <v>4.1905357028651986</v>
+        <v>4.0456434372550643</v>
       </c>
       <c r="J91">
-        <v>7.7158177627560729</v>
+        <v>7.6082827022853712</v>
       </c>
       <c r="K91">
-        <v>7.8338408610885697</v>
+        <v>7.6637725567372259</v>
       </c>
       <c r="L91">
-        <v>7.8905093586297106</v>
+        <v>7.8498828256941637</v>
       </c>
       <c r="M91">
-        <v>7.9274569611779437</v>
+        <v>8.1621498159261261</v>
       </c>
       <c r="N91">
-        <v>12.08330811866619</v>
+        <v>11.92374357146007</v>
       </c>
       <c r="O91">
-        <v>11.962364249730671</v>
+        <v>12.16775824911903</v>
       </c>
       <c r="P91">
-        <v>12.169002917363491</v>
+        <v>11.865680578308069</v>
       </c>
       <c r="Q91">
-        <v>11.61577020111652</v>
+        <v>12.459011454405671</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -5262,52 +5179,52 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.2399306184958423</v>
+        <v>7.5350703817670386E-3</v>
       </c>
       <c r="C92">
-        <v>0.46684072029432361</v>
+        <v>-2.746044671483594E-2</v>
       </c>
       <c r="D92">
-        <v>0.38624778751165129</v>
+        <v>0.31835821002835418</v>
       </c>
       <c r="E92">
-        <v>-0.32834982900742632</v>
+        <v>1.9172297438792899E-2</v>
       </c>
       <c r="F92">
-        <v>4.1338317333732348</v>
+        <v>3.6138621102494781</v>
       </c>
       <c r="G92">
-        <v>4.0475411715128491</v>
+        <v>3.5021384921473171</v>
       </c>
       <c r="H92">
-        <v>3.9500473358511119</v>
+        <v>3.7339527094497882</v>
       </c>
       <c r="I92">
-        <v>4.096446828090369</v>
+        <v>3.763017842038856</v>
       </c>
       <c r="J92">
-        <v>7.7256888707952083</v>
+        <v>8.0799566524957438</v>
       </c>
       <c r="K92">
-        <v>7.8928340064031328</v>
+        <v>8.1225368639913089</v>
       </c>
       <c r="L92">
-        <v>8.4037368819860117</v>
+        <v>7.7589084841832978</v>
       </c>
       <c r="M92">
-        <v>8.1878131864713808</v>
+        <v>8.443383553913888</v>
       </c>
       <c r="N92">
-        <v>11.72111339602783</v>
+        <v>12.3228575391683</v>
       </c>
       <c r="O92">
-        <v>11.927966100680131</v>
+        <v>11.940456987398941</v>
       </c>
       <c r="P92">
-        <v>12.47440237838955</v>
+        <v>12.29883797151054</v>
       </c>
       <c r="Q92">
-        <v>12.293994701983451</v>
+        <v>11.6324856917897</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -5315,52 +5232,52 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4784510243704021</v>
+        <v>0.32767016070345217</v>
       </c>
       <c r="C93">
-        <v>0.24929631156321941</v>
+        <v>-0.35884131374907219</v>
       </c>
       <c r="D93">
-        <v>0.45445790709987</v>
+        <v>0.4914824950832708</v>
       </c>
       <c r="E93">
-        <v>6.9743773969066503E-2</v>
+        <v>-0.48559495877298992</v>
       </c>
       <c r="F93">
-        <v>4.0216297008132207</v>
+        <v>4.4218906533178082</v>
       </c>
       <c r="G93">
-        <v>4.4393471362777186</v>
+        <v>4.0224387176479368</v>
       </c>
       <c r="H93">
-        <v>3.8890031363657851</v>
+        <v>4.039748957713984</v>
       </c>
       <c r="I93">
-        <v>4.42245195546964</v>
+        <v>3.721057098701702</v>
       </c>
       <c r="J93">
-        <v>7.5454010881296023</v>
+        <v>7.6609944363930342</v>
       </c>
       <c r="K93">
-        <v>8.1051384845251402</v>
+        <v>7.8737095599664357</v>
       </c>
       <c r="L93">
-        <v>8.209497661535627</v>
+        <v>8.3830741192793585</v>
       </c>
       <c r="M93">
-        <v>8.4923713752046659</v>
+        <v>8.4813544373472354</v>
       </c>
       <c r="N93">
-        <v>12.29205141296802</v>
+        <v>11.77874305349073</v>
       </c>
       <c r="O93">
-        <v>12.353264312902819</v>
+        <v>12.289158168944439</v>
       </c>
       <c r="P93">
-        <v>11.78177740351564</v>
+        <v>11.707703480042349</v>
       </c>
       <c r="Q93">
-        <v>11.50548893140753</v>
+        <v>12.16618041248773</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -5368,52 +5285,52 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.13220324623590021</v>
+        <v>-6.5008012861743403E-2</v>
       </c>
       <c r="C94">
-        <v>0.43482897342864069</v>
+        <v>0.34696566247004851</v>
       </c>
       <c r="D94">
-        <v>-0.26362005126265342</v>
+        <v>-0.38492628085277752</v>
       </c>
       <c r="E94">
-        <v>-0.29732068988739702</v>
+        <v>-8.6881061691664763E-2</v>
       </c>
       <c r="F94">
-        <v>3.5190710239501062</v>
+        <v>3.814381467058332</v>
       </c>
       <c r="G94">
-        <v>4.2166475124224441</v>
+        <v>3.9351326365105619</v>
       </c>
       <c r="H94">
-        <v>3.5413091192434951</v>
+        <v>4.0320388476780584</v>
       </c>
       <c r="I94">
-        <v>3.9561979516583361</v>
+        <v>4.253982263080955</v>
       </c>
       <c r="J94">
-        <v>8.2316460528784035</v>
+        <v>7.5046921731488023</v>
       </c>
       <c r="K94">
-        <v>7.6065517789594823</v>
+        <v>7.525234734340712</v>
       </c>
       <c r="L94">
-        <v>7.889130227445615</v>
+        <v>7.8664420971277016</v>
       </c>
       <c r="M94">
-        <v>7.7943372842805267</v>
+        <v>7.5553432299913119</v>
       </c>
       <c r="N94">
-        <v>11.580466008120821</v>
+        <v>11.79017648383617</v>
       </c>
       <c r="O94">
-        <v>11.69634256622868</v>
+        <v>11.94388815872219</v>
       </c>
       <c r="P94">
-        <v>11.95362839731224</v>
+        <v>12.11681267970847</v>
       </c>
       <c r="Q94">
-        <v>11.943048064921809</v>
+        <v>11.74211669634906</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -5421,52 +5338,52 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.44011411183420451</v>
+        <v>3.6480548096886938E-2</v>
       </c>
       <c r="C95">
-        <v>-0.18442302004189781</v>
+        <v>6.6847191528455863E-2</v>
       </c>
       <c r="D95">
-        <v>-0.17076543587908341</v>
+        <v>0.229148497753212</v>
       </c>
       <c r="E95">
-        <v>-8.571320851821973E-2</v>
+        <v>0.22547280298423061</v>
       </c>
       <c r="F95">
-        <v>4.284324756112456</v>
+        <v>3.6011289376303721</v>
       </c>
       <c r="G95">
-        <v>3.7603720483265661</v>
+        <v>4.1578558890564992</v>
       </c>
       <c r="H95">
-        <v>4.0854664921667414</v>
+        <v>4.3630448692108077</v>
       </c>
       <c r="I95">
-        <v>4.3076634119277832</v>
+        <v>4.4924290746473581</v>
       </c>
       <c r="J95">
-        <v>8.0624827649185917</v>
+        <v>7.895280360581685</v>
       </c>
       <c r="K95">
-        <v>8.4199722112293376</v>
+        <v>7.9839471939609163</v>
       </c>
       <c r="L95">
-        <v>8.3424852076513272</v>
+        <v>7.8651830287343989</v>
       </c>
       <c r="M95">
-        <v>7.9002730672710344</v>
+        <v>7.7960079123811443</v>
       </c>
       <c r="N95">
-        <v>11.684773446518509</v>
+        <v>12.420885041843009</v>
       </c>
       <c r="O95">
-        <v>12.343368577812431</v>
+        <v>11.929624735502211</v>
       </c>
       <c r="P95">
-        <v>11.964990673187289</v>
+        <v>11.52191245882433</v>
       </c>
       <c r="Q95">
-        <v>11.79170436627134</v>
+        <v>11.91020582174202</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -5474,52 +5391,52 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.4794884204664598E-2</v>
+        <v>0.14371569727461581</v>
       </c>
       <c r="C96">
-        <v>9.029604990264839E-2</v>
+        <v>0.4180430505951569</v>
       </c>
       <c r="D96">
-        <v>0.22599974884254601</v>
+        <v>-0.47524379277271661</v>
       </c>
       <c r="E96">
-        <v>0.43675017394032251</v>
+        <v>-8.1166355894308984E-2</v>
       </c>
       <c r="F96">
-        <v>4.4103711886853736</v>
+        <v>4.3338371847661206</v>
       </c>
       <c r="G96">
-        <v>4.2985581740969252</v>
+        <v>3.7384089942035401</v>
       </c>
       <c r="H96">
-        <v>4.2307227369813436</v>
+        <v>4.2038455554692939</v>
       </c>
       <c r="I96">
-        <v>3.666109630526051</v>
+        <v>4.2958022286223443</v>
       </c>
       <c r="J96">
-        <v>7.7862003471644847</v>
+        <v>7.7389996358695479</v>
       </c>
       <c r="K96">
-        <v>8.284015884199956</v>
+        <v>7.7182464657878436</v>
       </c>
       <c r="L96">
-        <v>7.8923697100291221</v>
+        <v>7.9057435225133217</v>
       </c>
       <c r="M96">
-        <v>7.5201107510015301</v>
+        <v>8.1627858766519701</v>
       </c>
       <c r="N96">
-        <v>12.30189361136347</v>
+        <v>12.084834850698689</v>
       </c>
       <c r="O96">
-        <v>11.8282090448145</v>
+        <v>12.291031565078111</v>
       </c>
       <c r="P96">
-        <v>11.533982109028919</v>
+        <v>11.76519645016943</v>
       </c>
       <c r="Q96">
-        <v>12.468597183464659</v>
+        <v>12.32793520966124</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -5527,52 +5444,52 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-1.346508590216766E-2</v>
+        <v>-0.20109035130561681</v>
       </c>
       <c r="C97">
-        <v>-0.16467037207207669</v>
+        <v>-0.32274141880224971</v>
       </c>
       <c r="D97">
-        <v>-0.49034581749484801</v>
+        <v>0.38306353191500381</v>
       </c>
       <c r="E97">
-        <v>4.5965831365747833E-2</v>
+        <v>-0.40737142981140578</v>
       </c>
       <c r="F97">
-        <v>4.0035625781206194</v>
+        <v>4.0797125543502464</v>
       </c>
       <c r="G97">
-        <v>4.4528252113873359</v>
+        <v>3.536264117878956</v>
       </c>
       <c r="H97">
-        <v>4.4454473445382119</v>
+        <v>4.0471009421504336</v>
       </c>
       <c r="I97">
-        <v>3.878045417117729</v>
+        <v>4.1160063838410057</v>
       </c>
       <c r="J97">
-        <v>8.0774324173292698</v>
+        <v>8.1566064511198064</v>
       </c>
       <c r="K97">
-        <v>8.3234252554839046</v>
+        <v>7.8806001081912669</v>
       </c>
       <c r="L97">
-        <v>8.2567932656874348</v>
+        <v>8.4837274680916774</v>
       </c>
       <c r="M97">
-        <v>8.1002716054552479</v>
+        <v>8.3888355417303195</v>
       </c>
       <c r="N97">
-        <v>11.812453743248451</v>
+        <v>12.023597268209191</v>
       </c>
       <c r="O97">
-        <v>11.604715417947739</v>
+        <v>11.71248629396533</v>
       </c>
       <c r="P97">
-        <v>11.816322831740051</v>
+        <v>11.651973395883431</v>
       </c>
       <c r="Q97">
-        <v>11.644436793005671</v>
+        <v>12.03005768554576</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -5580,52 +5497,52 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.34123964625720937</v>
+        <v>-0.36278728641181018</v>
       </c>
       <c r="C98">
-        <v>-0.22282234174002921</v>
+        <v>-0.16703138809836021</v>
       </c>
       <c r="D98">
-        <v>-3.509166862517954E-2</v>
+        <v>-0.32540481177433278</v>
       </c>
       <c r="E98">
-        <v>2.7822778920692289E-2</v>
+        <v>-0.39447364715231381</v>
       </c>
       <c r="F98">
-        <v>3.5705127679621271</v>
+        <v>4.3470857893702286</v>
       </c>
       <c r="G98">
-        <v>3.5805021447892611</v>
+        <v>3.7708958383084989</v>
       </c>
       <c r="H98">
-        <v>4.1222963098175951</v>
+        <v>3.69039133762961</v>
       </c>
       <c r="I98">
-        <v>3.506442949605685</v>
+        <v>4.2825159297245792</v>
       </c>
       <c r="J98">
-        <v>7.7623900104343244</v>
+        <v>8.4499365576009495</v>
       </c>
       <c r="K98">
-        <v>8.2667310103801803</v>
+        <v>7.8873249505307186</v>
       </c>
       <c r="L98">
-        <v>7.8064801586928052</v>
+        <v>8.4742437341914769</v>
       </c>
       <c r="M98">
-        <v>7.9089970023213638</v>
+        <v>7.9834908800662454</v>
       </c>
       <c r="N98">
-        <v>12.323294644566669</v>
+        <v>12.266517137410061</v>
       </c>
       <c r="O98">
-        <v>12.13125185319663</v>
+        <v>11.68266692860105</v>
       </c>
       <c r="P98">
-        <v>11.654121226856409</v>
+        <v>11.81753068073342</v>
       </c>
       <c r="Q98">
-        <v>11.825043150296001</v>
+        <v>12.067002676800429</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -5633,52 +5550,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2627619007956381</v>
+        <v>-0.29181356177139828</v>
       </c>
       <c r="C99">
-        <v>0.1914527813772566</v>
+        <v>-0.21419298169079559</v>
       </c>
       <c r="D99">
-        <v>0.33292184394734842</v>
+        <v>0.298003521745278</v>
       </c>
       <c r="E99">
-        <v>-0.31600672787303358</v>
+        <v>7.7441271183958493E-2</v>
       </c>
       <c r="F99">
-        <v>3.9088782850395489</v>
+        <v>3.7006935728417978</v>
       </c>
       <c r="G99">
-        <v>3.546890198570225</v>
+        <v>3.761526180056201</v>
       </c>
       <c r="H99">
-        <v>4.0854422159484063</v>
+        <v>4.4388505847381259</v>
       </c>
       <c r="I99">
-        <v>4.1187031804142631</v>
+        <v>3.9980629178446381</v>
       </c>
       <c r="J99">
-        <v>7.5263055278766906</v>
+        <v>8.1231065120052932</v>
       </c>
       <c r="K99">
-        <v>8.0988237452341671</v>
+        <v>8.4200998499948128</v>
       </c>
       <c r="L99">
-        <v>8.4553798419272503</v>
+        <v>8.4274740081147268</v>
       </c>
       <c r="M99">
-        <v>8.4890314704351884</v>
+        <v>7.6071881456501647</v>
       </c>
       <c r="N99">
-        <v>12.338846191913611</v>
+        <v>11.73282968931526</v>
       </c>
       <c r="O99">
-        <v>11.94590193576634</v>
+        <v>12.32922506707903</v>
       </c>
       <c r="P99">
-        <v>12.256596612260591</v>
+        <v>11.91333109694644</v>
       </c>
       <c r="Q99">
-        <v>11.71948976549997</v>
+        <v>11.85418994495264</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -5686,52 +5603,52 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.42015996365291203</v>
+        <v>-4.5161554018875998E-2</v>
       </c>
       <c r="C100">
-        <v>0.34895159020254668</v>
+        <v>-0.33574696454496661</v>
       </c>
       <c r="D100">
-        <v>0.12814846981768069</v>
+        <v>-0.36457879133060789</v>
       </c>
       <c r="E100">
-        <v>4.5979403060476758E-2</v>
+        <v>0.44474495950900311</v>
       </c>
       <c r="F100">
-        <v>4.0366580321032792</v>
+        <v>4.3290442464986691</v>
       </c>
       <c r="G100">
-        <v>4.4717281144579966</v>
+        <v>4.1160797969124063</v>
       </c>
       <c r="H100">
-        <v>4.1747797709318926</v>
+        <v>4.0916056953080071</v>
       </c>
       <c r="I100">
-        <v>3.9272902578230009</v>
+        <v>4.0274250362223691</v>
       </c>
       <c r="J100">
-        <v>8.4961934208251773</v>
+        <v>8.4361388930743466</v>
       </c>
       <c r="K100">
-        <v>8.4791315339889053</v>
+        <v>8.3430249384605215</v>
       </c>
       <c r="L100">
-        <v>7.9745923817454631</v>
+        <v>8.4728587875775752</v>
       </c>
       <c r="M100">
-        <v>7.7306725491259236</v>
+        <v>7.6817369441681764</v>
       </c>
       <c r="N100">
-        <v>12.231873501859919</v>
+        <v>12.493989504112189</v>
       </c>
       <c r="O100">
-        <v>12.443688399192601</v>
+        <v>12.218244803410951</v>
       </c>
       <c r="P100">
-        <v>12.490938395776091</v>
+        <v>12.466266718760631</v>
       </c>
       <c r="Q100">
-        <v>12.27448680417187</v>
+        <v>12.44121166726571</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -5739,52 +5656,52 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.44545154449657021</v>
+        <v>-0.36678754164092209</v>
       </c>
       <c r="C101">
-        <v>0.25602965405657357</v>
+        <v>-0.1088087568952717</v>
       </c>
       <c r="D101">
-        <v>0.33717373782000659</v>
+        <v>0.1156138284713384</v>
       </c>
       <c r="E101">
-        <v>0.26815702151204401</v>
+        <v>0.14559210907452319</v>
       </c>
       <c r="F101">
-        <v>3.8183345126034589</v>
+        <v>3.5621447212196449</v>
       </c>
       <c r="G101">
-        <v>4.15977258293261</v>
+        <v>3.8040170556831092</v>
       </c>
       <c r="H101">
-        <v>3.9657539734865632</v>
+        <v>4.2476602301848834</v>
       </c>
       <c r="I101">
-        <v>3.7358248480480212</v>
+        <v>3.944915044246029</v>
       </c>
       <c r="J101">
-        <v>8.3907895657438907</v>
+        <v>7.7336390498851992</v>
       </c>
       <c r="K101">
-        <v>8.3529037117681959</v>
+        <v>7.6452195967727556</v>
       </c>
       <c r="L101">
-        <v>7.6287593433232841</v>
+        <v>7.5978063906580564</v>
       </c>
       <c r="M101">
-        <v>7.6007114161441116</v>
+        <v>8.0111702743517892</v>
       </c>
       <c r="N101">
-        <v>11.74435840570527</v>
+        <v>11.883418514430749</v>
       </c>
       <c r="O101">
-        <v>12.03827440772805</v>
+        <v>11.52574679106665</v>
       </c>
       <c r="P101">
-        <v>12.11567652533205</v>
+        <v>12.010000895738701</v>
       </c>
       <c r="Q101">
-        <v>12.033621958627011</v>
+        <v>12.08072090973679</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -5792,52 +5709,52 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.38247477011886011</v>
+        <v>0.43164676350955899</v>
       </c>
       <c r="C102">
-        <v>-5.4216165563914183E-2</v>
+        <v>-0.27213302493283342</v>
       </c>
       <c r="D102">
-        <v>3.6791628016745959E-2</v>
+        <v>-0.44783466607590389</v>
       </c>
       <c r="E102">
-        <v>0.1039891080592575</v>
+        <v>-0.44229703400376458</v>
       </c>
       <c r="F102">
-        <v>4.4506884355605223</v>
+        <v>3.6591358259024891</v>
       </c>
       <c r="G102">
-        <v>4.2623492367214384</v>
+        <v>4.3235085381943206</v>
       </c>
       <c r="H102">
-        <v>4.3347276736051894</v>
+        <v>3.6052790537544159</v>
       </c>
       <c r="I102">
-        <v>4.3349961309132654</v>
+        <v>3.839971807870727</v>
       </c>
       <c r="J102">
-        <v>8.484354033142484</v>
+        <v>8.2387488086300547</v>
       </c>
       <c r="K102">
-        <v>8.0465422967555895</v>
+        <v>7.6542744827244977</v>
       </c>
       <c r="L102">
-        <v>8.2558002552466299</v>
+        <v>7.8776691370002236</v>
       </c>
       <c r="M102">
-        <v>8.4855185394689698</v>
+        <v>7.7533917732655473</v>
       </c>
       <c r="N102">
-        <v>11.64093386957742</v>
+        <v>12.395371456196919</v>
       </c>
       <c r="O102">
-        <v>11.865101079779491</v>
+        <v>11.73516299401324</v>
       </c>
       <c r="P102">
-        <v>12.391034499435049</v>
+        <v>11.728238758312809</v>
       </c>
       <c r="Q102">
-        <v>11.94195766675271</v>
+        <v>11.923231209406859</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -5845,52 +5762,52 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.32393108497523421</v>
+        <v>-0.34202795503366962</v>
       </c>
       <c r="C103">
-        <v>0.42752391065436568</v>
+        <v>-0.29322060860277499</v>
       </c>
       <c r="D103">
-        <v>0.45603177472040979</v>
+        <v>-0.28800741114450479</v>
       </c>
       <c r="E103">
-        <v>-0.43882422055035142</v>
+        <v>-0.4983949508596085</v>
       </c>
       <c r="F103">
-        <v>4.4307538779858708</v>
+        <v>4.247340039816887</v>
       </c>
       <c r="G103">
-        <v>4.1349714911280104</v>
+        <v>3.6019607546862362</v>
       </c>
       <c r="H103">
-        <v>3.50694340868086</v>
+        <v>4.3318073831133121</v>
       </c>
       <c r="I103">
-        <v>4.4857370849098466</v>
+        <v>4.3450542183561236</v>
       </c>
       <c r="J103">
-        <v>7.7987728239418521</v>
+        <v>7.7843318354065509</v>
       </c>
       <c r="K103">
-        <v>7.8980516610269937</v>
+        <v>7.8461377884355246</v>
       </c>
       <c r="L103">
-        <v>7.9523584371132587</v>
+        <v>7.5925931280939034</v>
       </c>
       <c r="M103">
-        <v>7.6407424053537456</v>
+        <v>8.1506006680429621</v>
       </c>
       <c r="N103">
-        <v>12.34918437359403</v>
+        <v>12.388970742074539</v>
       </c>
       <c r="O103">
-        <v>11.797342778952171</v>
+        <v>12.347463221899361</v>
       </c>
       <c r="P103">
-        <v>12.137008731908599</v>
+        <v>12.11785199573613</v>
       </c>
       <c r="Q103">
-        <v>11.951750519437271</v>
+        <v>12.060368562156951</v>
       </c>
     </row>
   </sheetData>
